--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/60/Output_3_36.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/60/Output_3_36.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3006084.803582337</v>
+        <v>3000881.47012202</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2250409.381847139</v>
+        <v>2310564.14322317</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>419463.0933791242</v>
+        <v>419463.0933791241</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7415534.637022746</v>
+        <v>7413764.698851489</v>
       </c>
     </row>
     <row r="11">
@@ -656,10 +656,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>191.5749231531553</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -668,13 +668,13 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>412.725494085322</v>
+        <v>12.725494085322</v>
       </c>
       <c r="G2" t="n">
         <v>409.0311279568768</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -707,25 +707,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T2" t="n">
         <v>221.2655964161775</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>206.3670033956581</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -735,7 +735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>150.2783710965517</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>149.1476881355087</v>
@@ -750,7 +750,7 @@
         <v>123.1874880556995</v>
       </c>
       <c r="G3" t="n">
-        <v>21.24059023834009</v>
+        <v>74.86702424530546</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -814,28 +814,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>55.24675346159196</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D4" t="n">
-        <v>100.3434053864687</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>30.07448747215907</v>
@@ -862,16 +862,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -902,16 +902,16 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>285.6050846383063</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>412.725494085322</v>
+        <v>12.725494085322</v>
       </c>
       <c r="G5" t="n">
         <v>409.0311279568768</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>83.84708725779268</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -941,16 +941,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S5" t="n">
         <v>164.8484195083599</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -959,10 +959,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y5" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -990,10 +990,10 @@
         <v>118.8592197488542</v>
       </c>
       <c r="H6" t="n">
-        <v>87.41444223540508</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>48.89338144820752</v>
+        <v>33.54550680794554</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,13 +1020,13 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>23.6778726709161</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>133.5813703291298</v>
       </c>
       <c r="T6" t="n">
-        <v>98.54676348900007</v>
+        <v>175.2139736830806</v>
       </c>
       <c r="U6" t="n">
         <v>207.9625118881446</v>
@@ -1035,7 +1035,7 @@
         <v>220.3146016126436</v>
       </c>
       <c r="W6" t="n">
-        <v>227.816073408046</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
         <v>187.4140068734885</v>
@@ -1063,7 +1063,7 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1102,16 +1102,16 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>214.0175430895177</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>120.7964963984689</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1130,28 +1130,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>304.0074039714629</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>389.2437464820987</v>
       </c>
       <c r="D8" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>412.725494085322</v>
+        <v>12.725494085322</v>
       </c>
       <c r="G8" t="n">
         <v>409.0311279568768</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>93.86158641218542</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,16 +1178,16 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1199,7 +1199,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="9">
@@ -1291,13 +1291,13 @@
         <v>183.3559385043883</v>
       </c>
       <c r="C10" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1339,25 +1339,25 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>13.22962011024177</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>11.61260049965499</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y10" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>302.4985237799664</v>
       </c>
       <c r="C11" t="n">
         <v>295.2524720077822</v>
@@ -1376,13 +1376,13 @@
         <v>287.5954430211825</v>
       </c>
       <c r="E11" t="n">
-        <v>304.5664151603044</v>
+        <v>74.0758460238453</v>
       </c>
       <c r="F11" t="n">
         <v>318.7342196110055</v>
       </c>
       <c r="G11" t="n">
-        <v>315.0398534825604</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>226.8509454548578</v>
@@ -1427,7 +1427,7 @@
         <v>159.2039277954309</v>
       </c>
       <c r="V11" t="n">
-        <v>1.662567890148381</v>
+        <v>244.6944667292003</v>
       </c>
       <c r="W11" t="n">
         <v>273.2977702070789</v>
@@ -1610,10 +1610,10 @@
         <v>295.2524720077822</v>
       </c>
       <c r="D14" t="n">
-        <v>287.5954430211825</v>
+        <v>273.4823810173248</v>
       </c>
       <c r="E14" t="n">
-        <v>304.5664151603044</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>318.7342196110055</v>
@@ -1622,10 +1622,10 @@
         <v>315.0398534825604</v>
       </c>
       <c r="H14" t="n">
-        <v>226.8509454548578</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>42.96247126414336</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,19 +1655,19 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>70.85714503404348</v>
       </c>
       <c r="T14" t="n">
         <v>127.274321941861</v>
       </c>
       <c r="U14" t="n">
-        <v>0.7908916816776809</v>
+        <v>159.2039277954309</v>
       </c>
       <c r="V14" t="n">
         <v>244.6944667292003</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>273.2977702070789</v>
       </c>
       <c r="X14" t="n">
         <v>291.5668045419573</v>
@@ -1862,7 +1862,7 @@
         <v>190.4822506135899</v>
       </c>
       <c r="I17" t="n">
-        <v>6.593776422875436</v>
+        <v>6.593776422875307</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1895,7 +1895,7 @@
         <v>34.48845019277556</v>
       </c>
       <c r="T17" t="n">
-        <v>90.90562710059199</v>
+        <v>90.90562710059311</v>
       </c>
       <c r="U17" t="n">
         <v>122.835232954163</v>
@@ -2330,13 +2330,13 @@
         <v>282.3655247697376</v>
       </c>
       <c r="G23" t="n">
-        <v>278.6711586412925</v>
+        <v>278.6711586412924</v>
       </c>
       <c r="H23" t="n">
         <v>190.4822506135899</v>
       </c>
       <c r="I23" t="n">
-        <v>6.593776422875465</v>
+        <v>6.593776422875436</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,10 +2366,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>34.48845019277559</v>
+        <v>34.48845019277556</v>
       </c>
       <c r="T23" t="n">
-        <v>90.90562710059314</v>
+        <v>90.90562710059311</v>
       </c>
       <c r="U23" t="n">
         <v>122.835232954163</v>
@@ -2378,10 +2378,10 @@
         <v>208.3257718879324</v>
       </c>
       <c r="W23" t="n">
-        <v>236.9290753658111</v>
+        <v>236.929075365811</v>
       </c>
       <c r="X23" t="n">
-        <v>255.1981097006894</v>
+        <v>255.1981097006893</v>
       </c>
       <c r="Y23" t="n">
         <v>262.1658326730205</v>
@@ -2473,28 +2473,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>52.99596918880391</v>
+        <v>52.99596918880388</v>
       </c>
       <c r="C25" t="n">
-        <v>38.14309743908632</v>
+        <v>38.14309743908629</v>
       </c>
       <c r="D25" t="n">
-        <v>23.71681265092604</v>
+        <v>23.71681265092602</v>
       </c>
       <c r="E25" t="n">
-        <v>23.64325470380516</v>
+        <v>23.64325470380513</v>
       </c>
       <c r="F25" t="n">
-        <v>25.39270612357242</v>
+        <v>25.3927061235724</v>
       </c>
       <c r="G25" t="n">
-        <v>36.21154404596456</v>
+        <v>36.21154404596453</v>
       </c>
       <c r="H25" t="n">
-        <v>23.5637962125366</v>
+        <v>23.56379621253657</v>
       </c>
       <c r="I25" t="n">
-        <v>1.403511793708532</v>
+        <v>1.403511793708503</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2524,25 +2524,25 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>70.42795366369177</v>
+        <v>70.42795366369174</v>
       </c>
       <c r="T25" t="n">
-        <v>103.0018919978639</v>
+        <v>103.0018919978638</v>
       </c>
       <c r="U25" t="n">
         <v>152.2244345249337</v>
       </c>
       <c r="V25" t="n">
-        <v>132.9595824117997</v>
+        <v>132.9595824117996</v>
       </c>
       <c r="W25" t="n">
         <v>150.1371287325498</v>
       </c>
       <c r="X25" t="n">
-        <v>101.3795496792624</v>
+        <v>101.3795496792623</v>
       </c>
       <c r="Y25" t="n">
-        <v>90.52097125593872</v>
+        <v>90.52097125593869</v>
       </c>
     </row>
     <row r="26">
@@ -2573,7 +2573,7 @@
         <v>226.8509454548578</v>
       </c>
       <c r="I26" t="n">
-        <v>42.96247126414335</v>
+        <v>42.96247126414336</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>70.85714503404347</v>
+        <v>70.85714503404348</v>
       </c>
       <c r="T26" t="n">
         <v>127.274321941861</v>
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>89.36466403007179</v>
+        <v>89.36466403007181</v>
       </c>
       <c r="C28" t="n">
-        <v>74.5117922803542</v>
+        <v>74.51179228035421</v>
       </c>
       <c r="D28" t="n">
-        <v>60.08550749219393</v>
+        <v>60.08550749219394</v>
       </c>
       <c r="E28" t="n">
-        <v>60.01194954507304</v>
+        <v>60.01194954507305</v>
       </c>
       <c r="F28" t="n">
-        <v>61.76140096484031</v>
+        <v>61.76140096484032</v>
       </c>
       <c r="G28" t="n">
-        <v>72.58023888723244</v>
+        <v>72.58023888723245</v>
       </c>
       <c r="H28" t="n">
-        <v>59.93249105380448</v>
+        <v>59.9324910538045</v>
       </c>
       <c r="I28" t="n">
-        <v>37.77220663497641</v>
+        <v>37.77220663497643</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,13 +2758,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>28.67070499943233</v>
+        <v>28.67070499943235</v>
       </c>
       <c r="S28" t="n">
-        <v>106.7966485049596</v>
+        <v>106.7966485049597</v>
       </c>
       <c r="T28" t="n">
-        <v>139.3705868391317</v>
+        <v>139.3705868391318</v>
       </c>
       <c r="U28" t="n">
         <v>188.5931293662016</v>
@@ -3026,28 +3026,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>286.903426900358</v>
+        <v>280.4599644277188</v>
       </c>
       <c r="C32" t="n">
-        <v>279.6573751281737</v>
+        <v>273.2139126555346</v>
       </c>
       <c r="D32" t="n">
-        <v>272.000346141574</v>
+        <v>265.5568836689349</v>
       </c>
       <c r="E32" t="n">
-        <v>288.971318280696</v>
+        <v>282.5278558080568</v>
       </c>
       <c r="F32" t="n">
-        <v>303.139122731397</v>
+        <v>296.6956602587579</v>
       </c>
       <c r="G32" t="n">
-        <v>299.4447566029519</v>
+        <v>293.0012941303128</v>
       </c>
       <c r="H32" t="n">
-        <v>211.2558485752493</v>
+        <v>204.8123861026102</v>
       </c>
       <c r="I32" t="n">
-        <v>27.36737438453488</v>
+        <v>20.92391191189573</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,25 +3077,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>55.26204815443501</v>
+        <v>48.81858568179585</v>
       </c>
       <c r="T32" t="n">
-        <v>111.6792250622526</v>
+        <v>105.2357625896134</v>
       </c>
       <c r="U32" t="n">
-        <v>143.6088309158224</v>
+        <v>137.1653684431833</v>
       </c>
       <c r="V32" t="n">
-        <v>229.0993698495919</v>
+        <v>222.6559073769527</v>
       </c>
       <c r="W32" t="n">
-        <v>257.7026733274705</v>
+        <v>251.2592108548313</v>
       </c>
       <c r="X32" t="n">
-        <v>275.9717076623488</v>
+        <v>269.5282451897097</v>
       </c>
       <c r="Y32" t="n">
-        <v>282.93943063468</v>
+        <v>276.4959681620408</v>
       </c>
     </row>
     <row r="33">
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>73.76956715046333</v>
+        <v>67.32610467782418</v>
       </c>
       <c r="C34" t="n">
-        <v>58.91669540074574</v>
+        <v>52.47323292810658</v>
       </c>
       <c r="D34" t="n">
-        <v>44.49041061258546</v>
+        <v>38.04694813994631</v>
       </c>
       <c r="E34" t="n">
-        <v>44.41685266546457</v>
+        <v>37.97339019282542</v>
       </c>
       <c r="F34" t="n">
-        <v>46.16630408523184</v>
+        <v>39.72284161259269</v>
       </c>
       <c r="G34" t="n">
-        <v>56.98514200762398</v>
+        <v>50.54167953498482</v>
       </c>
       <c r="H34" t="n">
-        <v>44.33739417419602</v>
+        <v>37.89393170155687</v>
       </c>
       <c r="I34" t="n">
-        <v>22.17710975536795</v>
+        <v>15.7336472827288</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>13.07560811982387</v>
+        <v>6.632145647184714</v>
       </c>
       <c r="S34" t="n">
-        <v>91.20155162535119</v>
+        <v>84.75808915271203</v>
       </c>
       <c r="T34" t="n">
-        <v>123.7754899595233</v>
+        <v>117.3320274868841</v>
       </c>
       <c r="U34" t="n">
-        <v>172.9980324865931</v>
+        <v>166.554570013954</v>
       </c>
       <c r="V34" t="n">
-        <v>153.7331803734591</v>
+        <v>147.2897179008199</v>
       </c>
       <c r="W34" t="n">
-        <v>170.9107266942092</v>
+        <v>164.4672642215701</v>
       </c>
       <c r="X34" t="n">
-        <v>122.1531476409218</v>
+        <v>115.7096851682826</v>
       </c>
       <c r="Y34" t="n">
-        <v>111.2945692175981</v>
+        <v>104.851106744959</v>
       </c>
     </row>
     <row r="35">
@@ -3263,13 +3263,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>266.1298289386986</v>
+        <v>266.1298289386985</v>
       </c>
       <c r="C35" t="n">
         <v>258.8837771665143</v>
       </c>
       <c r="D35" t="n">
-        <v>251.2267481799146</v>
+        <v>251.2267481799145</v>
       </c>
       <c r="E35" t="n">
         <v>268.1977203190365</v>
@@ -3281,10 +3281,10 @@
         <v>278.6711586412924</v>
       </c>
       <c r="H35" t="n">
-        <v>190.4822506135899</v>
+        <v>190.4822506135898</v>
       </c>
       <c r="I35" t="n">
-        <v>6.593776422875436</v>
+        <v>6.593776422875408</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,10 +3314,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>34.48845019277556</v>
+        <v>34.48845019277553</v>
       </c>
       <c r="T35" t="n">
-        <v>90.90562710059311</v>
+        <v>90.90562710059308</v>
       </c>
       <c r="U35" t="n">
         <v>122.835232954163</v>
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>52.99596918880388</v>
+        <v>52.99596918880385</v>
       </c>
       <c r="C37" t="n">
-        <v>38.14309743908629</v>
+        <v>38.14309743908626</v>
       </c>
       <c r="D37" t="n">
-        <v>23.71681265092602</v>
+        <v>23.71681265092599</v>
       </c>
       <c r="E37" t="n">
-        <v>23.64325470380513</v>
+        <v>23.6432547038051</v>
       </c>
       <c r="F37" t="n">
-        <v>25.3927061235724</v>
+        <v>25.39270612357237</v>
       </c>
       <c r="G37" t="n">
-        <v>36.21154404596453</v>
+        <v>36.2115440459645</v>
       </c>
       <c r="H37" t="n">
-        <v>23.56379621253657</v>
+        <v>23.56379621253654</v>
       </c>
       <c r="I37" t="n">
-        <v>1.403511793708503</v>
+        <v>1.403511793708475</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3472,7 +3472,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>70.42795366369174</v>
+        <v>70.42795366369171</v>
       </c>
       <c r="T37" t="n">
         <v>103.0018919978638</v>
@@ -3484,13 +3484,13 @@
         <v>132.9595824117996</v>
       </c>
       <c r="W37" t="n">
-        <v>150.1371287325498</v>
+        <v>150.1371287325497</v>
       </c>
       <c r="X37" t="n">
         <v>101.3795496792623</v>
       </c>
       <c r="Y37" t="n">
-        <v>90.52097125593869</v>
+        <v>90.52097125593866</v>
       </c>
     </row>
     <row r="38">
@@ -3737,28 +3737,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>300.0229587840511</v>
+        <v>300.022958784051</v>
       </c>
       <c r="C41" t="n">
-        <v>292.7769070118669</v>
+        <v>292.7769070118667</v>
       </c>
       <c r="D41" t="n">
-        <v>285.1198780252671</v>
+        <v>1.098310803921734</v>
       </c>
       <c r="E41" t="n">
-        <v>302.0908501643891</v>
+        <v>302.0908501643889</v>
       </c>
       <c r="F41" t="n">
-        <v>316.2586546150902</v>
+        <v>316.2586546150901</v>
       </c>
       <c r="G41" t="n">
-        <v>312.564288486645</v>
+        <v>312.5642884866449</v>
       </c>
       <c r="H41" t="n">
-        <v>224.3753804589424</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>40.48690626822797</v>
+        <v>40.48690626822788</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,25 +3788,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>68.38158003812809</v>
+        <v>68.38158003812801</v>
       </c>
       <c r="T41" t="n">
         <v>124.7987569459456</v>
       </c>
       <c r="U41" t="n">
-        <v>156.7283627995155</v>
+        <v>156.7283627995154</v>
       </c>
       <c r="V41" t="n">
-        <v>242.218901733285</v>
+        <v>242.2189017332848</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>270.8222052111635</v>
       </c>
       <c r="X41" t="n">
-        <v>51.5164970769174</v>
+        <v>289.0912395460418</v>
       </c>
       <c r="Y41" t="n">
-        <v>296.0589625183731</v>
+        <v>296.0589625183729</v>
       </c>
     </row>
     <row r="42">
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>86.88909903415642</v>
+        <v>86.88909903415633</v>
       </c>
       <c r="C43" t="n">
-        <v>72.03622728443882</v>
+        <v>72.03622728443874</v>
       </c>
       <c r="D43" t="n">
-        <v>57.60994249627855</v>
+        <v>57.60994249627846</v>
       </c>
       <c r="E43" t="n">
-        <v>57.53638454915766</v>
+        <v>57.53638454915757</v>
       </c>
       <c r="F43" t="n">
-        <v>59.28583596892493</v>
+        <v>59.28583596892484</v>
       </c>
       <c r="G43" t="n">
-        <v>70.10467389131706</v>
+        <v>70.10467389131698</v>
       </c>
       <c r="H43" t="n">
-        <v>57.45692605788911</v>
+        <v>57.45692605788902</v>
       </c>
       <c r="I43" t="n">
-        <v>35.29664163906104</v>
+        <v>35.29664163906095</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,28 +3943,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>26.19514000351695</v>
+        <v>26.19514000351687</v>
       </c>
       <c r="S43" t="n">
-        <v>104.3210835090443</v>
+        <v>104.3210835090442</v>
       </c>
       <c r="T43" t="n">
         <v>136.8950218432163</v>
       </c>
       <c r="U43" t="n">
-        <v>186.1175643702862</v>
+        <v>186.1175643702861</v>
       </c>
       <c r="V43" t="n">
-        <v>166.8527122571522</v>
+        <v>166.8527122571521</v>
       </c>
       <c r="W43" t="n">
-        <v>184.0302585779023</v>
+        <v>184.0302585779022</v>
       </c>
       <c r="X43" t="n">
-        <v>135.2726795246149</v>
+        <v>135.2726795246148</v>
       </c>
       <c r="Y43" t="n">
-        <v>124.4141011012912</v>
+        <v>124.4141011012911</v>
       </c>
     </row>
     <row r="44">
@@ -3974,22 +3974,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>300.0229587840511</v>
+        <v>300.022958784051</v>
       </c>
       <c r="C44" t="n">
-        <v>292.7769070118668</v>
+        <v>292.7769070118667</v>
       </c>
       <c r="D44" t="n">
-        <v>285.1198780252671</v>
+        <v>41.5852170721508</v>
       </c>
       <c r="E44" t="n">
-        <v>302.0908501643891</v>
+        <v>302.0908501643889</v>
       </c>
       <c r="F44" t="n">
         <v>316.2586546150901</v>
       </c>
       <c r="G44" t="n">
-        <v>294.1395703711715</v>
+        <v>312.5642884866449</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -4025,25 +4025,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>68.38158003812801</v>
       </c>
       <c r="T44" t="n">
         <v>124.7987569459456</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>156.7283627995154</v>
       </c>
       <c r="V44" t="n">
-        <v>242.2189017332849</v>
+        <v>242.2189017332848</v>
       </c>
       <c r="W44" t="n">
-        <v>270.8222052111636</v>
+        <v>270.8222052111635</v>
       </c>
       <c r="X44" t="n">
         <v>289.0912395460418</v>
       </c>
       <c r="Y44" t="n">
-        <v>296.0589625183731</v>
+        <v>296.0589625183729</v>
       </c>
     </row>
     <row r="45">
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>86.8890990341564</v>
+        <v>86.88909903415633</v>
       </c>
       <c r="C46" t="n">
-        <v>72.03622728443881</v>
+        <v>72.03622728443874</v>
       </c>
       <c r="D46" t="n">
-        <v>57.60994249627853</v>
+        <v>57.60994249627846</v>
       </c>
       <c r="E46" t="n">
-        <v>57.53638454915765</v>
+        <v>57.53638454915757</v>
       </c>
       <c r="F46" t="n">
-        <v>59.28583596892491</v>
+        <v>59.28583596892484</v>
       </c>
       <c r="G46" t="n">
-        <v>70.10467389131705</v>
+        <v>70.10467389131698</v>
       </c>
       <c r="H46" t="n">
-        <v>57.45692605788909</v>
+        <v>57.45692605788902</v>
       </c>
       <c r="I46" t="n">
-        <v>35.29664163906102</v>
+        <v>35.29664163906095</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,28 +4180,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>26.19514000351694</v>
+        <v>26.19514000351687</v>
       </c>
       <c r="S46" t="n">
-        <v>104.3210835090443</v>
+        <v>104.3210835090442</v>
       </c>
       <c r="T46" t="n">
         <v>136.8950218432163</v>
       </c>
       <c r="U46" t="n">
-        <v>186.1175643702862</v>
+        <v>186.1175643702861</v>
       </c>
       <c r="V46" t="n">
         <v>166.8527122571521</v>
       </c>
       <c r="W46" t="n">
-        <v>184.0302585779023</v>
+        <v>184.0302585779022</v>
       </c>
       <c r="X46" t="n">
-        <v>135.2726795246149</v>
+        <v>135.2726795246148</v>
       </c>
       <c r="Y46" t="n">
-        <v>124.4141011012912</v>
+        <v>124.4141011012911</v>
       </c>
     </row>
   </sheetData>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1066.057955906083</v>
+        <v>790.5981662737468</v>
       </c>
       <c r="C2" t="n">
-        <v>872.5479325190579</v>
+        <v>790.5981662737468</v>
       </c>
       <c r="D2" t="n">
-        <v>872.5479325190579</v>
+        <v>790.5981662737468</v>
       </c>
       <c r="E2" t="n">
-        <v>872.5479325190579</v>
+        <v>790.5981662737468</v>
       </c>
       <c r="F2" t="n">
-        <v>455.6534940490357</v>
+        <v>777.7441318441286</v>
       </c>
       <c r="G2" t="n">
-        <v>42.49073853703882</v>
+        <v>364.5813763321316</v>
       </c>
       <c r="H2" t="n">
-        <v>42.49073853703882</v>
+        <v>40.49832589862227</v>
       </c>
       <c r="I2" t="n">
-        <v>42.49073853703882</v>
+        <v>40.49832589862227</v>
       </c>
       <c r="J2" t="n">
-        <v>42.49073853703882</v>
+        <v>46.56170315639525</v>
       </c>
       <c r="K2" t="n">
-        <v>401.4730945645006</v>
+        <v>405.5440591838571</v>
       </c>
       <c r="L2" t="n">
-        <v>810.4869444322351</v>
+        <v>898.8643509023859</v>
       </c>
       <c r="M2" t="n">
-        <v>1336.30983382809</v>
+        <v>898.8643509023859</v>
       </c>
       <c r="N2" t="n">
-        <v>1336.30983382809</v>
+        <v>1400.031133897837</v>
       </c>
       <c r="O2" t="n">
-        <v>1776.349434720419</v>
+        <v>1840.070734790165</v>
       </c>
       <c r="P2" t="n">
-        <v>2124.536926851941</v>
+        <v>1840.070734790165</v>
       </c>
       <c r="Q2" t="n">
-        <v>2124.536926851941</v>
+        <v>2024.916294931113</v>
       </c>
       <c r="R2" t="n">
-        <v>2086.544013137463</v>
+        <v>1986.923381216635</v>
       </c>
       <c r="S2" t="n">
-        <v>2086.544013137463</v>
+        <v>1820.409826157686</v>
       </c>
       <c r="T2" t="n">
-        <v>1863.043410696879</v>
+        <v>1596.909223717103</v>
       </c>
       <c r="U2" t="n">
-        <v>1863.043410696879</v>
+        <v>1341.156494151701</v>
       </c>
       <c r="V2" t="n">
-        <v>1863.043410696879</v>
+        <v>999.0496848552197</v>
       </c>
       <c r="W2" t="n">
-        <v>1863.043410696879</v>
+        <v>790.5981662737468</v>
       </c>
       <c r="X2" t="n">
-        <v>1863.043410696879</v>
+        <v>790.5981662737468</v>
       </c>
       <c r="Y2" t="n">
-        <v>1466.55270161748</v>
+        <v>790.5981662737468</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>605.5673750163357</v>
+        <v>657.7430775364701</v>
       </c>
       <c r="C3" t="n">
-        <v>454.913144576428</v>
+        <v>507.0888470965623</v>
       </c>
       <c r="D3" t="n">
-        <v>324.8241771979083</v>
+        <v>376.9998797180426</v>
       </c>
       <c r="E3" t="n">
-        <v>188.377686308796</v>
+        <v>240.5533888289303</v>
       </c>
       <c r="F3" t="n">
-        <v>63.9458801919278</v>
+        <v>116.1215827120621</v>
       </c>
       <c r="G3" t="n">
-        <v>42.49073853703882</v>
+        <v>40.49832589862227</v>
       </c>
       <c r="H3" t="n">
-        <v>42.49073853703882</v>
+        <v>40.49832589862227</v>
       </c>
       <c r="I3" t="n">
-        <v>42.49073853703882</v>
+        <v>40.49832589862227</v>
       </c>
       <c r="J3" t="n">
-        <v>42.49073853703882</v>
+        <v>40.49832589862227</v>
       </c>
       <c r="K3" t="n">
-        <v>362.2298845992652</v>
+        <v>360.2374719608487</v>
       </c>
       <c r="L3" t="n">
-        <v>362.2298845992652</v>
+        <v>360.2374719608487</v>
       </c>
       <c r="M3" t="n">
-        <v>888.0527739951206</v>
+        <v>861.4042549562994</v>
       </c>
       <c r="N3" t="n">
-        <v>968.0301839896716</v>
+        <v>883.7630516643749</v>
       </c>
       <c r="O3" t="n">
-        <v>1484.550466580653</v>
+        <v>1384.929834659825</v>
       </c>
       <c r="P3" t="n">
-        <v>1890.17183529705</v>
+        <v>1790.551203376223</v>
       </c>
       <c r="Q3" t="n">
-        <v>2124.536926851941</v>
+        <v>2024.916294931113</v>
       </c>
       <c r="R3" t="n">
-        <v>2100.619883750005</v>
+        <v>2000.999251829178</v>
       </c>
       <c r="S3" t="n">
-        <v>1965.689206649874</v>
+        <v>1866.068574729047</v>
       </c>
       <c r="T3" t="n">
-        <v>1788.705394848782</v>
+        <v>1689.084762927955</v>
       </c>
       <c r="U3" t="n">
-        <v>1578.642251527424</v>
+        <v>1479.021619606597</v>
       </c>
       <c r="V3" t="n">
-        <v>1356.102249898491</v>
+        <v>1256.481617977664</v>
       </c>
       <c r="W3" t="n">
-        <v>1125.985004031778</v>
+        <v>1026.364372110951</v>
       </c>
       <c r="X3" t="n">
-        <v>936.6779263817898</v>
+        <v>837.0572944609628</v>
       </c>
       <c r="Y3" t="n">
-        <v>757.3637094572971</v>
+        <v>657.7430775364701</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>943.9377610785913</v>
+        <v>241.0817140065311</v>
       </c>
       <c r="C4" t="n">
-        <v>943.9377610785913</v>
+        <v>70.87659607252033</v>
       </c>
       <c r="D4" t="n">
-        <v>842.5807859407441</v>
+        <v>70.87659607252033</v>
       </c>
       <c r="E4" t="n">
-        <v>687.0219737999466</v>
+        <v>70.87659607252033</v>
       </c>
       <c r="F4" t="n">
-        <v>529.6960390129195</v>
+        <v>70.87659607252033</v>
       </c>
       <c r="G4" t="n">
-        <v>361.441985112365</v>
+        <v>70.87659607252033</v>
       </c>
       <c r="H4" t="n">
-        <v>205.963434073859</v>
+        <v>70.87659607252033</v>
       </c>
       <c r="I4" t="n">
-        <v>72.86900871093687</v>
+        <v>70.87659607252033</v>
       </c>
       <c r="J4" t="n">
-        <v>42.49073853703882</v>
+        <v>40.49832589862227</v>
       </c>
       <c r="K4" t="n">
-        <v>124.3257796469807</v>
+        <v>122.3333670085641</v>
       </c>
       <c r="L4" t="n">
-        <v>288.4534195207805</v>
+        <v>286.4610068823639</v>
       </c>
       <c r="M4" t="n">
-        <v>474.7449978590445</v>
+        <v>472.7525852206279</v>
       </c>
       <c r="N4" t="n">
-        <v>657.9346318902537</v>
+        <v>655.9422192518371</v>
       </c>
       <c r="O4" t="n">
-        <v>820.6393989319618</v>
+        <v>818.6469862935451</v>
       </c>
       <c r="P4" t="n">
-        <v>940.5155647085403</v>
+        <v>938.5231520701236</v>
       </c>
       <c r="Q4" t="n">
-        <v>943.9377610785913</v>
+        <v>941.9453484401746</v>
       </c>
       <c r="R4" t="n">
-        <v>943.9377610785913</v>
+        <v>818.0443590727516</v>
       </c>
       <c r="S4" t="n">
-        <v>943.9377610785913</v>
+        <v>818.0443590727516</v>
       </c>
       <c r="T4" t="n">
-        <v>943.9377610785913</v>
+        <v>582.3253072409857</v>
       </c>
       <c r="U4" t="n">
-        <v>943.9377610785913</v>
+        <v>296.8865154828866</v>
       </c>
       <c r="V4" t="n">
-        <v>943.9377610785913</v>
+        <v>296.8865154828866</v>
       </c>
       <c r="W4" t="n">
-        <v>943.9377610785913</v>
+        <v>296.8865154828866</v>
       </c>
       <c r="X4" t="n">
-        <v>943.9377610785913</v>
+        <v>296.8865154828866</v>
       </c>
       <c r="Y4" t="n">
-        <v>943.9377610785913</v>
+        <v>296.8865154828866</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1161.037917002196</v>
+        <v>551.2091433733613</v>
       </c>
       <c r="C5" t="n">
-        <v>1161.037917002196</v>
+        <v>551.2091433733613</v>
       </c>
       <c r="D5" t="n">
-        <v>1161.037917002196</v>
+        <v>551.2091433733613</v>
       </c>
       <c r="E5" t="n">
-        <v>872.5479325190579</v>
+        <v>551.2091433733613</v>
       </c>
       <c r="F5" t="n">
-        <v>455.6534940490357</v>
+        <v>538.3551089437431</v>
       </c>
       <c r="G5" t="n">
-        <v>42.49073853703882</v>
+        <v>125.1923534317462</v>
       </c>
       <c r="H5" t="n">
-        <v>42.49073853703882</v>
+        <v>40.49832589862227</v>
       </c>
       <c r="I5" t="n">
-        <v>42.49073853703882</v>
+        <v>40.49832589862227</v>
       </c>
       <c r="J5" t="n">
-        <v>42.49073853703882</v>
+        <v>185.1480988074504</v>
       </c>
       <c r="K5" t="n">
-        <v>401.4730945645006</v>
+        <v>544.1304548349121</v>
       </c>
       <c r="L5" t="n">
-        <v>894.7933862830295</v>
+        <v>1037.450746553441</v>
       </c>
       <c r="M5" t="n">
-        <v>1420.616275678885</v>
+        <v>1051.843641766315</v>
       </c>
       <c r="N5" t="n">
-        <v>1946.43916507474</v>
+        <v>1051.843641766315</v>
       </c>
       <c r="O5" t="n">
-        <v>2124.536926851941</v>
+        <v>1491.883242658643</v>
       </c>
       <c r="P5" t="n">
-        <v>2124.536926851941</v>
+        <v>1840.070734790165</v>
       </c>
       <c r="Q5" t="n">
-        <v>2124.536926851941</v>
+        <v>2024.916294931113</v>
       </c>
       <c r="R5" t="n">
-        <v>2124.536926851941</v>
+        <v>1986.923381216635</v>
       </c>
       <c r="S5" t="n">
-        <v>1958.023371792991</v>
+        <v>1820.409826157686</v>
       </c>
       <c r="T5" t="n">
-        <v>1958.023371792991</v>
+        <v>1596.909223717103</v>
       </c>
       <c r="U5" t="n">
-        <v>1958.023371792991</v>
+        <v>1341.156494151701</v>
       </c>
       <c r="V5" t="n">
-        <v>1958.023371792991</v>
+        <v>1341.156494151701</v>
       </c>
       <c r="W5" t="n">
-        <v>1958.023371792991</v>
+        <v>1341.156494151701</v>
       </c>
       <c r="X5" t="n">
-        <v>1958.023371792991</v>
+        <v>951.7038890847581</v>
       </c>
       <c r="Y5" t="n">
-        <v>1561.532662713593</v>
+        <v>951.7038890847581</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>841.8567216770698</v>
+        <v>736.0639889622219</v>
       </c>
       <c r="C6" t="n">
-        <v>691.202491237162</v>
+        <v>585.4097585223141</v>
       </c>
       <c r="D6" t="n">
-        <v>561.1135238586423</v>
+        <v>455.3207911437944</v>
       </c>
       <c r="E6" t="n">
-        <v>424.6670329695301</v>
+        <v>318.8743002546821</v>
       </c>
       <c r="F6" t="n">
-        <v>300.2352268526619</v>
+        <v>194.4424941378139</v>
       </c>
       <c r="G6" t="n">
-        <v>180.1754089245263</v>
+        <v>74.38267620967837</v>
       </c>
       <c r="H6" t="n">
-        <v>91.87799252512723</v>
+        <v>74.38267620967837</v>
       </c>
       <c r="I6" t="n">
-        <v>42.49073853703882</v>
+        <v>40.49832589862227</v>
       </c>
       <c r="J6" t="n">
-        <v>42.49073853703882</v>
+        <v>153.6133081183497</v>
       </c>
       <c r="K6" t="n">
-        <v>42.49073853703882</v>
+        <v>473.3524541805761</v>
       </c>
       <c r="L6" t="n">
-        <v>42.49073853703882</v>
+        <v>521.4159459447617</v>
       </c>
       <c r="M6" t="n">
-        <v>568.3136279328942</v>
+        <v>1022.582728940212</v>
       </c>
       <c r="N6" t="n">
-        <v>968.0301839896716</v>
+        <v>1523.749511935663</v>
       </c>
       <c r="O6" t="n">
-        <v>1484.550466580653</v>
+        <v>2024.916294931113</v>
       </c>
       <c r="P6" t="n">
-        <v>1890.17183529705</v>
+        <v>2024.916294931113</v>
       </c>
       <c r="Q6" t="n">
-        <v>2124.536926851941</v>
+        <v>2024.916294931113</v>
       </c>
       <c r="R6" t="n">
-        <v>2124.536926851941</v>
+        <v>2000.999251829178</v>
       </c>
       <c r="S6" t="n">
-        <v>2124.536926851941</v>
+        <v>1866.068574729047</v>
       </c>
       <c r="T6" t="n">
-        <v>2024.994741509516</v>
+        <v>1689.084762927955</v>
       </c>
       <c r="U6" t="n">
-        <v>1814.931598188158</v>
+        <v>1479.021619606597</v>
       </c>
       <c r="V6" t="n">
-        <v>1592.391596559225</v>
+        <v>1256.481617977664</v>
       </c>
       <c r="W6" t="n">
-        <v>1362.274350692512</v>
+        <v>1256.481617977664</v>
       </c>
       <c r="X6" t="n">
-        <v>1172.967273042524</v>
+        <v>1067.174540327676</v>
       </c>
       <c r="Y6" t="n">
-        <v>993.6530561180311</v>
+        <v>887.8603234031832</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>199.8166733240659</v>
+        <v>40.49832589862227</v>
       </c>
       <c r="C7" t="n">
-        <v>199.8166733240659</v>
+        <v>40.49832589862227</v>
       </c>
       <c r="D7" t="n">
-        <v>199.8166733240659</v>
+        <v>40.49832589862227</v>
       </c>
       <c r="E7" t="n">
-        <v>199.8166733240659</v>
+        <v>40.49832589862227</v>
       </c>
       <c r="F7" t="n">
-        <v>42.49073853703882</v>
+        <v>40.49832589862227</v>
       </c>
       <c r="G7" t="n">
-        <v>42.49073853703882</v>
+        <v>40.49832589862227</v>
       </c>
       <c r="H7" t="n">
-        <v>42.49073853703882</v>
+        <v>40.49832589862227</v>
       </c>
       <c r="I7" t="n">
-        <v>42.49073853703882</v>
+        <v>40.49832589862227</v>
       </c>
       <c r="J7" t="n">
-        <v>42.49073853703882</v>
+        <v>40.49832589862227</v>
       </c>
       <c r="K7" t="n">
-        <v>124.3257796469807</v>
+        <v>122.3333670085641</v>
       </c>
       <c r="L7" t="n">
-        <v>288.4534195207805</v>
+        <v>286.4610068823639</v>
       </c>
       <c r="M7" t="n">
-        <v>474.7449978590445</v>
+        <v>472.7525852206279</v>
       </c>
       <c r="N7" t="n">
-        <v>657.9346318902537</v>
+        <v>655.9422192518371</v>
       </c>
       <c r="O7" t="n">
-        <v>820.6393989319618</v>
+        <v>818.6469862935451</v>
       </c>
       <c r="P7" t="n">
-        <v>940.5155647085403</v>
+        <v>938.5231520701236</v>
       </c>
       <c r="Q7" t="n">
-        <v>943.9377610785913</v>
+        <v>941.9453484401746</v>
       </c>
       <c r="R7" t="n">
-        <v>943.9377610785913</v>
+        <v>941.9453484401746</v>
       </c>
       <c r="S7" t="n">
-        <v>741.1216772611406</v>
+        <v>941.9453484401746</v>
       </c>
       <c r="T7" t="n">
-        <v>741.1216772611406</v>
+        <v>725.7660119861163</v>
       </c>
       <c r="U7" t="n">
-        <v>741.1216772611406</v>
+        <v>725.7660119861163</v>
       </c>
       <c r="V7" t="n">
-        <v>619.1050142323841</v>
+        <v>459.7866668069405</v>
       </c>
       <c r="W7" t="n">
-        <v>619.1050142323841</v>
+        <v>459.7866668069405</v>
       </c>
       <c r="X7" t="n">
-        <v>385.0246920153671</v>
+        <v>225.7063445899236</v>
       </c>
       <c r="Y7" t="n">
-        <v>385.0246920153671</v>
+        <v>225.7063445899236</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2058.57031924742</v>
+        <v>1285.397995218369</v>
       </c>
       <c r="C8" t="n">
-        <v>1665.394817750351</v>
+        <v>892.2224937212998</v>
       </c>
       <c r="D8" t="n">
-        <v>1279.953688967018</v>
+        <v>892.2224937212998</v>
       </c>
       <c r="E8" t="n">
-        <v>877.3701640835627</v>
+        <v>892.2224937212998</v>
       </c>
       <c r="F8" t="n">
-        <v>460.4757256135405</v>
+        <v>879.3684592916816</v>
       </c>
       <c r="G8" t="n">
-        <v>47.31297010154361</v>
+        <v>466.2057037796847</v>
       </c>
       <c r="H8" t="n">
-        <v>47.31297010154361</v>
+        <v>142.1226533461754</v>
       </c>
       <c r="I8" t="n">
         <v>47.31297010154361</v>
       </c>
       <c r="J8" t="n">
-        <v>47.31297010154361</v>
+        <v>191.9627430103717</v>
       </c>
       <c r="K8" t="n">
-        <v>358.4764287842802</v>
+        <v>550.9450990378335</v>
       </c>
       <c r="L8" t="n">
-        <v>851.7967205028091</v>
+        <v>1044.265390756362</v>
       </c>
       <c r="M8" t="n">
-        <v>1397.79762054739</v>
+        <v>1212.952060406441</v>
       </c>
       <c r="N8" t="n">
-        <v>1925.608904184852</v>
+        <v>1740.763344043903</v>
       </c>
       <c r="O8" t="n">
-        <v>2365.64850507718</v>
+        <v>2180.802944936232</v>
       </c>
       <c r="P8" t="n">
-        <v>2365.64850507718</v>
+        <v>2180.802944936232</v>
       </c>
       <c r="Q8" t="n">
         <v>2365.64850507718</v>
       </c>
       <c r="R8" t="n">
-        <v>2365.64850507718</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="S8" t="n">
-        <v>2365.64850507718</v>
+        <v>2161.142036303753</v>
       </c>
       <c r="T8" t="n">
-        <v>2365.64850507718</v>
+        <v>1937.641433863169</v>
       </c>
       <c r="U8" t="n">
-        <v>2365.64850507718</v>
+        <v>1681.888704297768</v>
       </c>
       <c r="V8" t="n">
-        <v>2365.64850507718</v>
+        <v>1681.888704297768</v>
       </c>
       <c r="W8" t="n">
-        <v>2365.64850507718</v>
+        <v>1681.888704297768</v>
       </c>
       <c r="X8" t="n">
-        <v>2365.64850507718</v>
+        <v>1681.888704297768</v>
       </c>
       <c r="Y8" t="n">
-        <v>2365.64850507718</v>
+        <v>1285.397995218369</v>
       </c>
     </row>
     <row r="9">
@@ -4884,16 +4884,16 @@
         <v>160.4279523212711</v>
       </c>
       <c r="K9" t="n">
-        <v>480.1670983834975</v>
+        <v>160.4279523212711</v>
       </c>
       <c r="L9" t="n">
-        <v>963.7331842818107</v>
+        <v>643.9940382195844</v>
       </c>
       <c r="M9" t="n">
-        <v>963.7331842818107</v>
+        <v>1229.492043226187</v>
       </c>
       <c r="N9" t="n">
-        <v>1549.231189288413</v>
+        <v>1725.662044805892</v>
       </c>
       <c r="O9" t="n">
         <v>1725.662044805892</v>
@@ -4936,13 +4936,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>528.7100132738371</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="C10" t="n">
-        <v>358.5048953398264</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="D10" t="n">
-        <v>202.8717822423411</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="E10" t="n">
         <v>47.31297010154361</v>
@@ -4987,25 +4987,25 @@
         <v>948.7599926430961</v>
       </c>
       <c r="S10" t="n">
-        <v>948.7599926430961</v>
+        <v>745.9439088256454</v>
       </c>
       <c r="T10" t="n">
-        <v>948.7599926430961</v>
+        <v>732.5806561890375</v>
       </c>
       <c r="U10" t="n">
-        <v>948.7599926430961</v>
+        <v>732.5806561890375</v>
       </c>
       <c r="V10" t="n">
-        <v>948.7599926430961</v>
+        <v>466.6013110098618</v>
       </c>
       <c r="W10" t="n">
-        <v>948.7599926430961</v>
+        <v>466.6013110098618</v>
       </c>
       <c r="X10" t="n">
-        <v>937.0300931484951</v>
+        <v>232.5209887928449</v>
       </c>
       <c r="Y10" t="n">
-        <v>713.9180319651384</v>
+        <v>232.5209887928449</v>
       </c>
     </row>
     <row r="11">
@@ -5015,19 +5015,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1871.211875180718</v>
+        <v>1320.171044252417</v>
       </c>
       <c r="C11" t="n">
-        <v>1572.977054970837</v>
+        <v>1021.936224042535</v>
       </c>
       <c r="D11" t="n">
-        <v>1282.476607474693</v>
+        <v>731.4357765463915</v>
       </c>
       <c r="E11" t="n">
-        <v>974.8337638784258</v>
+        <v>656.6116896536173</v>
       </c>
       <c r="F11" t="n">
-        <v>652.8800066955919</v>
+        <v>334.6579324707834</v>
       </c>
       <c r="G11" t="n">
         <v>334.6579324707834</v>
@@ -5075,16 +5075,16 @@
         <v>2745.011542002408</v>
       </c>
       <c r="V11" t="n">
-        <v>2743.332180497207</v>
+        <v>2497.845413993115</v>
       </c>
       <c r="W11" t="n">
-        <v>2467.273826752683</v>
+        <v>2221.78706024859</v>
       </c>
       <c r="X11" t="n">
-        <v>2172.761902972929</v>
+        <v>1927.275136468836</v>
       </c>
       <c r="Y11" t="n">
-        <v>1871.211875180718</v>
+        <v>1625.725108676625</v>
       </c>
     </row>
     <row r="12">
@@ -5118,16 +5118,16 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J12" t="n">
-        <v>175.2341099238429</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K12" t="n">
-        <v>175.2341099238429</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="L12" t="n">
-        <v>658.8001958221562</v>
+        <v>545.6852136024288</v>
       </c>
       <c r="M12" t="n">
-        <v>1286.571845448837</v>
+        <v>802.5350401618138</v>
       </c>
       <c r="N12" t="n">
         <v>1458.313011372373</v>
@@ -5176,19 +5176,19 @@
         <v>493.0843669551</v>
       </c>
       <c r="C13" t="n">
-        <v>417.8199303082775</v>
+        <v>417.8199303082777</v>
       </c>
       <c r="D13" t="n">
-        <v>357.1274984979806</v>
+        <v>357.1274984979809</v>
       </c>
       <c r="E13" t="n">
         <v>296.5093676443717</v>
       </c>
       <c r="F13" t="n">
-        <v>234.1241141445328</v>
+        <v>234.1241141445331</v>
       </c>
       <c r="G13" t="n">
-        <v>160.8107415311667</v>
+        <v>160.810741531167</v>
       </c>
       <c r="H13" t="n">
         <v>100.2728717798493</v>
@@ -5197,16 +5197,16 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J13" t="n">
-        <v>125.3967468362513</v>
+        <v>125.3967468362514</v>
       </c>
       <c r="K13" t="n">
-        <v>300.2831496757665</v>
+        <v>300.283149675766</v>
       </c>
       <c r="L13" t="n">
-        <v>557.4621512791396</v>
+        <v>557.4621512791391</v>
       </c>
       <c r="M13" t="n">
-        <v>836.805091346977</v>
+        <v>836.8050913469765</v>
       </c>
       <c r="N13" t="n">
         <v>1113.046087107759</v>
@@ -5236,7 +5236,7 @@
         <v>1039.052445966844</v>
       </c>
       <c r="W13" t="n">
-        <v>850.6627251852098</v>
+        <v>850.6627251852099</v>
       </c>
       <c r="X13" t="n">
         <v>711.5230842553813</v>
@@ -5252,25 +5252,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1827.815439560371</v>
+        <v>1320.171044252416</v>
       </c>
       <c r="C14" t="n">
-        <v>1529.58061935049</v>
+        <v>1021.936224042535</v>
       </c>
       <c r="D14" t="n">
-        <v>1239.080171854346</v>
+        <v>745.6913947321048</v>
       </c>
       <c r="E14" t="n">
-        <v>931.4373282580791</v>
+        <v>745.6913947321048</v>
       </c>
       <c r="F14" t="n">
-        <v>609.4835710752452</v>
+        <v>423.7376375492709</v>
       </c>
       <c r="G14" t="n">
-        <v>291.2614968504365</v>
+        <v>105.5155633244624</v>
       </c>
       <c r="H14" t="n">
-        <v>62.11912770411553</v>
+        <v>105.5155633244624</v>
       </c>
       <c r="I14" t="n">
         <v>62.11912770411553</v>
@@ -5303,25 +5303,25 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S14" t="n">
-        <v>3105.956385205776</v>
+        <v>3034.383511434015</v>
       </c>
       <c r="T14" t="n">
-        <v>2977.396464052381</v>
+        <v>2905.82359028062</v>
       </c>
       <c r="U14" t="n">
-        <v>2976.597583565838</v>
+        <v>2745.011542002408</v>
       </c>
       <c r="V14" t="n">
-        <v>2729.431455556545</v>
+        <v>2497.845413993115</v>
       </c>
       <c r="W14" t="n">
-        <v>2729.431455556545</v>
+        <v>2221.78706024859</v>
       </c>
       <c r="X14" t="n">
-        <v>2434.91953177679</v>
+        <v>1927.275136468836</v>
       </c>
       <c r="Y14" t="n">
-        <v>2133.36950398458</v>
+        <v>1625.725108676625</v>
       </c>
     </row>
     <row r="15">
@@ -5364,16 +5364,16 @@
         <v>978.5393418843826</v>
       </c>
       <c r="M15" t="n">
-        <v>1606.310991511064</v>
+        <v>1084.690231197904</v>
       </c>
       <c r="N15" t="n">
-        <v>1863.93438008877</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="O15" t="n">
-        <v>2380.454662679751</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P15" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q15" t="n">
         <v>2380.454662679751</v>
@@ -5410,22 +5410,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>493.0843669551007</v>
+        <v>493.0843669551003</v>
       </c>
       <c r="C16" t="n">
-        <v>417.8199303082781</v>
+        <v>417.8199303082779</v>
       </c>
       <c r="D16" t="n">
-        <v>357.1274984979812</v>
+        <v>357.127498497981</v>
       </c>
       <c r="E16" t="n">
-        <v>296.5093676443719</v>
+        <v>296.5093676443718</v>
       </c>
       <c r="F16" t="n">
-        <v>234.1241141445329</v>
+        <v>234.1241141445331</v>
       </c>
       <c r="G16" t="n">
-        <v>160.8107415311668</v>
+        <v>160.810741531167</v>
       </c>
       <c r="H16" t="n">
         <v>100.2728717798493</v>
@@ -5434,7 +5434,7 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J16" t="n">
-        <v>125.3967468362514</v>
+        <v>125.3967468362513</v>
       </c>
       <c r="K16" t="n">
         <v>300.2831496757665</v>
@@ -5443,16 +5443,16 @@
         <v>557.4621512791396</v>
       </c>
       <c r="M16" t="n">
-        <v>836.8050913469772</v>
+        <v>836.805091346977</v>
       </c>
       <c r="N16" t="n">
-        <v>1113.04608710776</v>
+        <v>1113.046087107759</v>
       </c>
       <c r="O16" t="n">
         <v>1368.802215879041</v>
       </c>
       <c r="P16" t="n">
-        <v>1581.729743385193</v>
+        <v>1581.729743385192</v>
       </c>
       <c r="Q16" t="n">
         <v>1678.203301484817</v>
@@ -5464,22 +5464,22 @@
         <v>1541.36759087432</v>
       </c>
       <c r="T16" t="n">
-        <v>1400.589220329743</v>
+        <v>1400.589220329742</v>
       </c>
       <c r="U16" t="n">
-        <v>1210.091109858832</v>
+        <v>1210.091109858831</v>
       </c>
       <c r="V16" t="n">
-        <v>1039.052445966845</v>
+        <v>1039.052445966844</v>
       </c>
       <c r="W16" t="n">
-        <v>850.6627251852105</v>
+        <v>850.6627251852101</v>
       </c>
       <c r="X16" t="n">
-        <v>711.5230842553819</v>
+        <v>711.5230842553816</v>
       </c>
       <c r="Y16" t="n">
-        <v>583.3517043592137</v>
+        <v>583.3517043592133</v>
       </c>
     </row>
     <row r="17">
@@ -5498,34 +5498,34 @@
         <v>1098.796330498592</v>
       </c>
       <c r="E17" t="n">
-        <v>827.8895422975452</v>
+        <v>827.8895422975449</v>
       </c>
       <c r="F17" t="n">
         <v>542.6718405099314</v>
       </c>
       <c r="G17" t="n">
-        <v>261.185821680343</v>
+        <v>261.1858216803425</v>
       </c>
       <c r="H17" t="n">
-        <v>68.77950792924243</v>
+        <v>68.7795079292421</v>
       </c>
       <c r="I17" t="n">
-        <v>62.11912770411573</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J17" t="n">
-        <v>206.7689006129438</v>
+        <v>206.7689006129444</v>
       </c>
       <c r="K17" t="n">
-        <v>565.7512566404057</v>
+        <v>565.7512566404062</v>
       </c>
       <c r="L17" t="n">
-        <v>1059.071548358934</v>
+        <v>1059.071548358935</v>
       </c>
       <c r="M17" t="n">
         <v>1605.072448403515</v>
       </c>
       <c r="N17" t="n">
-        <v>2132.883732040977</v>
+        <v>2132.883732040978</v>
       </c>
       <c r="O17" t="n">
         <v>2572.923332933306</v>
@@ -5552,7 +5552,7 @@
         <v>2644.789635573994</v>
       </c>
       <c r="W17" t="n">
-        <v>2405.467337224691</v>
+        <v>2405.46733722469</v>
       </c>
       <c r="X17" t="n">
         <v>2147.691468840156</v>
@@ -5598,16 +5598,16 @@
         <v>494.9732559860694</v>
       </c>
       <c r="L18" t="n">
-        <v>978.5393418843826</v>
+        <v>862.5399502876207</v>
       </c>
       <c r="M18" t="n">
-        <v>978.5393418843826</v>
+        <v>1490.311599914302</v>
       </c>
       <c r="N18" t="n">
-        <v>1223.947919817482</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="O18" t="n">
-        <v>1740.468202408463</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="P18" t="n">
         <v>2146.089571124861</v>
@@ -5671,28 +5671,28 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J19" t="n">
-        <v>62.11912770411553</v>
+        <v>67.69877031229933</v>
       </c>
       <c r="K19" t="n">
-        <v>143.9541688140574</v>
+        <v>278.5901810446697</v>
       </c>
       <c r="L19" t="n">
-        <v>308.0818086878572</v>
+        <v>442.7178209184696</v>
       </c>
       <c r="M19" t="n">
-        <v>494.3733870261212</v>
+        <v>629.0093992567336</v>
       </c>
       <c r="N19" t="n">
-        <v>677.5630210573304</v>
+        <v>812.1990332879427</v>
       </c>
       <c r="O19" t="n">
-        <v>840.2677880990384</v>
+        <v>974.9038003296507</v>
       </c>
       <c r="P19" t="n">
-        <v>1087.158956162812</v>
+        <v>1094.779966106229</v>
       </c>
       <c r="Q19" t="n">
-        <v>1090.581152532863</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="R19" t="n">
         <v>1098.20216247628</v>
@@ -5726,25 +5726,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1614.059487414177</v>
+        <v>1614.059487414176</v>
       </c>
       <c r="C20" t="n">
-        <v>1352.560722599516</v>
+        <v>1352.560722599515</v>
       </c>
       <c r="D20" t="n">
         <v>1098.796330498592</v>
       </c>
       <c r="E20" t="n">
-        <v>827.8895422975452</v>
+        <v>827.8895422975447</v>
       </c>
       <c r="F20" t="n">
-        <v>542.6718405099314</v>
+        <v>542.6718405099309</v>
       </c>
       <c r="G20" t="n">
-        <v>261.185821680343</v>
+        <v>261.1858216803425</v>
       </c>
       <c r="H20" t="n">
-        <v>68.77950792924224</v>
+        <v>68.77950792924223</v>
       </c>
       <c r="I20" t="n">
         <v>62.11912770411553</v>
@@ -5774,10 +5774,10 @@
         <v>3105.956385205776</v>
       </c>
       <c r="R20" t="n">
-        <v>3105.956385205777</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="S20" t="n">
-        <v>3071.119566829236</v>
+        <v>3071.119566829235</v>
       </c>
       <c r="T20" t="n">
         <v>2979.295701071061</v>
@@ -5832,13 +5832,13 @@
         <v>175.2341099238429</v>
       </c>
       <c r="K21" t="n">
-        <v>494.9732559860694</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="L21" t="n">
-        <v>978.5393418843826</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="M21" t="n">
-        <v>1223.947919817482</v>
+        <v>803.0057595505241</v>
       </c>
       <c r="N21" t="n">
         <v>1223.947919817482</v>
@@ -5902,7 +5902,7 @@
         <v>87.33863074072673</v>
       </c>
       <c r="H22" t="n">
-        <v>63.53681638462918</v>
+        <v>63.53681638462917</v>
       </c>
       <c r="I22" t="n">
         <v>62.11912770411553</v>
@@ -5914,19 +5914,19 @@
         <v>143.9541688140574</v>
       </c>
       <c r="L22" t="n">
-        <v>437.1381783102856</v>
+        <v>308.0818086878572</v>
       </c>
       <c r="M22" t="n">
-        <v>629.0093992567336</v>
+        <v>494.3733870261212</v>
       </c>
       <c r="N22" t="n">
-        <v>812.1990332879427</v>
+        <v>677.5630210573304</v>
       </c>
       <c r="O22" t="n">
-        <v>974.9038003296507</v>
+        <v>840.2677880990384</v>
       </c>
       <c r="P22" t="n">
-        <v>1094.779966106229</v>
+        <v>1089.200323498045</v>
       </c>
       <c r="Q22" t="n">
         <v>1098.20216247628</v>
@@ -5963,25 +5963,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1614.059487414177</v>
+        <v>1614.059487414178</v>
       </c>
       <c r="C23" t="n">
-        <v>1352.560722599516</v>
+        <v>1352.560722599517</v>
       </c>
       <c r="D23" t="n">
-        <v>1098.796330498592</v>
+        <v>1098.796330498593</v>
       </c>
       <c r="E23" t="n">
-        <v>827.8895422975452</v>
+        <v>827.8895422975456</v>
       </c>
       <c r="F23" t="n">
-        <v>542.6718405099314</v>
+        <v>542.6718405099318</v>
       </c>
       <c r="G23" t="n">
-        <v>261.185821680343</v>
+        <v>261.1858216803435</v>
       </c>
       <c r="H23" t="n">
-        <v>68.77950792924227</v>
+        <v>68.77950792924224</v>
       </c>
       <c r="I23" t="n">
         <v>62.11912770411553</v>
@@ -6008,7 +6008,7 @@
         <v>2921.110825064828</v>
       </c>
       <c r="Q23" t="n">
-        <v>3105.956385205776</v>
+        <v>3105.956385205777</v>
       </c>
       <c r="R23" t="n">
         <v>3105.956385205777</v>
@@ -6029,10 +6029,10 @@
         <v>2405.467337224691</v>
       </c>
       <c r="X23" t="n">
-        <v>2147.691468840156</v>
+        <v>2147.691468840157</v>
       </c>
       <c r="Y23" t="n">
-        <v>1882.877496443165</v>
+        <v>1882.877496443166</v>
       </c>
     </row>
     <row r="24">
@@ -6066,19 +6066,19 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J24" t="n">
-        <v>175.2341099238429</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K24" t="n">
-        <v>494.9732559860694</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="L24" t="n">
-        <v>978.5393418843826</v>
+        <v>545.6852136024288</v>
       </c>
       <c r="M24" t="n">
-        <v>1223.947919817482</v>
+        <v>1084.690231197904</v>
       </c>
       <c r="N24" t="n">
-        <v>1223.947919817482</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="O24" t="n">
         <v>1740.468202408463</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>235.9319791885596</v>
+        <v>235.9319791885594</v>
       </c>
       <c r="C25" t="n">
-        <v>197.4035979369573</v>
+        <v>197.4035979369571</v>
       </c>
       <c r="D25" t="n">
-        <v>173.4472215218805</v>
+        <v>173.4472215218803</v>
       </c>
       <c r="E25" t="n">
-        <v>149.5651460634914</v>
+        <v>149.5651460634913</v>
       </c>
       <c r="F25" t="n">
-        <v>123.9159479588728</v>
+        <v>123.9159479588727</v>
       </c>
       <c r="G25" t="n">
-        <v>87.33863074072679</v>
+        <v>87.33863074072673</v>
       </c>
       <c r="H25" t="n">
-        <v>63.5368163846292</v>
+        <v>63.53681638462918</v>
       </c>
       <c r="I25" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J25" t="n">
-        <v>62.11912770411553</v>
+        <v>161.4017547291066</v>
       </c>
       <c r="K25" t="n">
-        <v>143.9541688140574</v>
+        <v>243.2367958390485</v>
       </c>
       <c r="L25" t="n">
-        <v>308.0818086878572</v>
+        <v>407.3644357128483</v>
       </c>
       <c r="M25" t="n">
-        <v>494.3733870261212</v>
+        <v>593.6560140511123</v>
       </c>
       <c r="N25" t="n">
-        <v>677.5630210573304</v>
+        <v>812.1990332879427</v>
       </c>
       <c r="O25" t="n">
-        <v>845.8474307072227</v>
+        <v>974.9038003296507</v>
       </c>
       <c r="P25" t="n">
-        <v>1094.77996610623</v>
+        <v>1094.779966106229</v>
       </c>
       <c r="Q25" t="n">
-        <v>1098.202162476281</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="R25" t="n">
-        <v>1098.202162476281</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="S25" t="n">
         <v>1027.062815341238</v>
       </c>
       <c r="T25" t="n">
-        <v>923.020500191881</v>
+        <v>923.0205001918806</v>
       </c>
       <c r="U25" t="n">
-        <v>769.2584451161904</v>
+        <v>769.25844511619</v>
       </c>
       <c r="V25" t="n">
-        <v>634.9558366194231</v>
+        <v>634.9558366194227</v>
       </c>
       <c r="W25" t="n">
-        <v>483.3021712330091</v>
+        <v>483.3021712330088</v>
       </c>
       <c r="X25" t="n">
-        <v>380.8985856984007</v>
+        <v>380.8985856984004</v>
       </c>
       <c r="Y25" t="n">
-        <v>289.4632611974525</v>
+        <v>289.4632611974523</v>
       </c>
     </row>
     <row r="26">
@@ -6200,22 +6200,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1882.457606424151</v>
+        <v>1882.457606424153</v>
       </c>
       <c r="C26" t="n">
-        <v>1584.22278621427</v>
+        <v>1584.222786214272</v>
       </c>
       <c r="D26" t="n">
-        <v>1293.722338718127</v>
+        <v>1293.722338718128</v>
       </c>
       <c r="E26" t="n">
-        <v>986.07949512186</v>
+        <v>986.0794951218604</v>
       </c>
       <c r="F26" t="n">
-        <v>664.1257379390261</v>
+        <v>664.1257379390265</v>
       </c>
       <c r="G26" t="n">
-        <v>345.9036637142176</v>
+        <v>345.9036637142181</v>
       </c>
       <c r="H26" t="n">
         <v>116.7612945678971</v>
@@ -6236,10 +6236,10 @@
         <v>1925.441780118092</v>
       </c>
       <c r="N26" t="n">
-        <v>2453.253063755554</v>
+        <v>2546.304425485127</v>
       </c>
       <c r="O26" t="n">
-        <v>2893.292664647882</v>
+        <v>2986.344026377456</v>
       </c>
       <c r="P26" t="n">
         <v>3334.531518508978</v>
@@ -6251,25 +6251,25 @@
         <v>3668.242947377513</v>
       </c>
       <c r="S26" t="n">
-        <v>3596.670073605751</v>
+        <v>3596.670073605752</v>
       </c>
       <c r="T26" t="n">
-        <v>3468.110152452356</v>
+        <v>3468.110152452357</v>
       </c>
       <c r="U26" t="n">
-        <v>3307.298104174143</v>
+        <v>3307.298104174144</v>
       </c>
       <c r="V26" t="n">
-        <v>3060.13197616485</v>
+        <v>3060.131976164851</v>
       </c>
       <c r="W26" t="n">
-        <v>2784.073622420326</v>
+        <v>2784.073622420327</v>
       </c>
       <c r="X26" t="n">
-        <v>2489.561698640571</v>
+        <v>2489.561698640572</v>
       </c>
       <c r="Y26" t="n">
-        <v>2188.01167084836</v>
+        <v>2188.011670848361</v>
       </c>
     </row>
     <row r="27">
@@ -6306,10 +6306,10 @@
         <v>186.4798411672776</v>
       </c>
       <c r="K27" t="n">
-        <v>506.2189872295041</v>
+        <v>186.4798411672776</v>
       </c>
       <c r="L27" t="n">
-        <v>989.7850731278173</v>
+        <v>607.4220014342354</v>
       </c>
       <c r="M27" t="n">
         <v>1235.193651060917</v>
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>504.330098198535</v>
+        <v>504.3300981985353</v>
       </c>
       <c r="C28" t="n">
-        <v>429.0656615517125</v>
+        <v>429.0656615517128</v>
       </c>
       <c r="D28" t="n">
-        <v>368.3732297414156</v>
+        <v>368.3732297414159</v>
       </c>
       <c r="E28" t="n">
         <v>307.7550988878068</v>
       </c>
       <c r="F28" t="n">
-        <v>245.3698453879679</v>
+        <v>245.369845387968</v>
       </c>
       <c r="G28" t="n">
-        <v>172.0564727746015</v>
+        <v>172.056472774602</v>
       </c>
       <c r="H28" t="n">
-        <v>111.5186030232841</v>
+        <v>111.5186030232842</v>
       </c>
       <c r="I28" t="n">
         <v>73.36485894755026</v>
@@ -6385,16 +6385,16 @@
         <v>136.6424780796862</v>
       </c>
       <c r="K28" t="n">
-        <v>311.5288809192008</v>
+        <v>311.5288809192011</v>
       </c>
       <c r="L28" t="n">
-        <v>568.7078825225736</v>
+        <v>568.7078825225742</v>
       </c>
       <c r="M28" t="n">
-        <v>848.0508225904108</v>
+        <v>848.0508225904116</v>
       </c>
       <c r="N28" t="n">
-        <v>1124.291818351193</v>
+        <v>1124.291818351194</v>
       </c>
       <c r="O28" t="n">
         <v>1380.047947122475</v>
@@ -6421,13 +6421,13 @@
         <v>1050.298177210279</v>
       </c>
       <c r="W28" t="n">
-        <v>861.9084564286447</v>
+        <v>861.908456428645</v>
       </c>
       <c r="X28" t="n">
-        <v>722.7688154988163</v>
+        <v>722.7688154988165</v>
       </c>
       <c r="Y28" t="n">
-        <v>594.5974356026479</v>
+        <v>594.5974356026481</v>
       </c>
     </row>
     <row r="29">
@@ -6437,22 +6437,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1882.457606424152</v>
+        <v>1882.457606424153</v>
       </c>
       <c r="C29" t="n">
-        <v>1584.222786214271</v>
+        <v>1584.222786214272</v>
       </c>
       <c r="D29" t="n">
-        <v>1293.722338718127</v>
+        <v>1293.722338718128</v>
       </c>
       <c r="E29" t="n">
-        <v>986.0794951218602</v>
+        <v>986.0794951218604</v>
       </c>
       <c r="F29" t="n">
-        <v>664.1257379390263</v>
+        <v>664.1257379390265</v>
       </c>
       <c r="G29" t="n">
-        <v>345.9036637142178</v>
+        <v>345.9036637142181</v>
       </c>
       <c r="H29" t="n">
         <v>116.7612945678971</v>
@@ -6464,22 +6464,22 @@
         <v>311.0659935859517</v>
       </c>
       <c r="K29" t="n">
-        <v>763.0997113429868</v>
+        <v>670.0483496134135</v>
       </c>
       <c r="L29" t="n">
-        <v>1349.471364791089</v>
+        <v>1256.420003061516</v>
       </c>
       <c r="M29" t="n">
-        <v>1925.441780118092</v>
+        <v>1895.47226483567</v>
       </c>
       <c r="N29" t="n">
-        <v>2453.253063755554</v>
+        <v>2516.334910202705</v>
       </c>
       <c r="O29" t="n">
-        <v>2893.292664647883</v>
+        <v>3049.425872824607</v>
       </c>
       <c r="P29" t="n">
-        <v>3334.531518508978</v>
+        <v>3397.613364956129</v>
       </c>
       <c r="Q29" t="n">
         <v>3612.4284403795</v>
@@ -6488,25 +6488,25 @@
         <v>3668.242947377513</v>
       </c>
       <c r="S29" t="n">
-        <v>3596.670073605752</v>
+        <v>3596.670073605751</v>
       </c>
       <c r="T29" t="n">
         <v>3468.110152452356</v>
       </c>
       <c r="U29" t="n">
-        <v>3307.298104174143</v>
+        <v>3307.298104174144</v>
       </c>
       <c r="V29" t="n">
-        <v>3060.13197616485</v>
+        <v>3060.131976164851</v>
       </c>
       <c r="W29" t="n">
-        <v>2784.073622420326</v>
+        <v>2784.073622420327</v>
       </c>
       <c r="X29" t="n">
-        <v>2489.561698640571</v>
+        <v>2489.561698640572</v>
       </c>
       <c r="Y29" t="n">
-        <v>2188.01167084836</v>
+        <v>2188.011670848361</v>
       </c>
     </row>
     <row r="30">
@@ -6549,10 +6549,10 @@
         <v>989.7850731278173</v>
       </c>
       <c r="M30" t="n">
-        <v>1235.193651060917</v>
+        <v>1617.556722754498</v>
       </c>
       <c r="N30" t="n">
-        <v>1235.193651060917</v>
+        <v>1617.556722754498</v>
       </c>
       <c r="O30" t="n">
         <v>1751.713933651898</v>
@@ -6595,10 +6595,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>504.3300981985348</v>
+        <v>504.330098198535</v>
       </c>
       <c r="C31" t="n">
-        <v>429.0656615517124</v>
+        <v>429.0656615517126</v>
       </c>
       <c r="D31" t="n">
         <v>368.3732297414157</v>
@@ -6613,22 +6613,22 @@
         <v>172.0564727746017</v>
       </c>
       <c r="H31" t="n">
-        <v>111.5186030232841</v>
+        <v>111.518603023284</v>
       </c>
       <c r="I31" t="n">
         <v>73.36485894755026</v>
       </c>
       <c r="J31" t="n">
-        <v>136.6424780796859</v>
+        <v>136.642478079686</v>
       </c>
       <c r="K31" t="n">
-        <v>311.5288809192008</v>
+        <v>311.5288809192011</v>
       </c>
       <c r="L31" t="n">
-        <v>568.7078825225739</v>
+        <v>568.7078825225742</v>
       </c>
       <c r="M31" t="n">
-        <v>848.0508225904113</v>
+        <v>848.0508225904116</v>
       </c>
       <c r="N31" t="n">
         <v>1124.291818351194</v>
@@ -6643,7 +6643,7 @@
         <v>1689.449032728251</v>
       </c>
       <c r="R31" t="n">
-        <v>1660.488724648016</v>
+        <v>1660.488724648017</v>
       </c>
       <c r="S31" t="n">
         <v>1552.613322117754</v>
@@ -6655,16 +6655,16 @@
         <v>1221.336841102266</v>
       </c>
       <c r="V31" t="n">
-        <v>1050.298177210278</v>
+        <v>1050.298177210279</v>
       </c>
       <c r="W31" t="n">
-        <v>861.9084564286445</v>
+        <v>861.9084564286447</v>
       </c>
       <c r="X31" t="n">
-        <v>722.7688154988159</v>
+        <v>722.7688154988163</v>
       </c>
       <c r="Y31" t="n">
-        <v>594.5974356026476</v>
+        <v>594.5974356026479</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1767.367013084638</v>
+        <v>1719.814764781096</v>
       </c>
       <c r="C32" t="n">
-        <v>1484.884815985473</v>
+        <v>1443.841115634091</v>
       </c>
       <c r="D32" t="n">
-        <v>1210.136991600045</v>
+        <v>1175.601839200824</v>
       </c>
       <c r="E32" t="n">
-        <v>918.2467711144932</v>
+        <v>890.2201666674334</v>
       </c>
       <c r="F32" t="n">
-        <v>612.0456370423749</v>
+        <v>590.527580547476</v>
       </c>
       <c r="G32" t="n">
-        <v>309.576185928282</v>
+        <v>294.5666773855439</v>
       </c>
       <c r="H32" t="n">
-        <v>96.18643989267667</v>
+        <v>87.68547930209935</v>
       </c>
       <c r="I32" t="n">
-        <v>68.54262738304547</v>
+        <v>66.55021474462892</v>
       </c>
       <c r="J32" t="n">
-        <v>213.1924002918736</v>
+        <v>211.199987653457</v>
       </c>
       <c r="K32" t="n">
-        <v>572.1747563193354</v>
+        <v>570.1823436809188</v>
       </c>
       <c r="L32" t="n">
-        <v>1173.98555567825</v>
+        <v>1165.756364896306</v>
       </c>
       <c r="M32" t="n">
-        <v>1828.476963363216</v>
+        <v>1711.757264940886</v>
       </c>
       <c r="N32" t="n">
-        <v>2382.805063078649</v>
+        <v>2239.568548578348</v>
       </c>
       <c r="O32" t="n">
-        <v>2822.844663970977</v>
+        <v>2794.477684958975</v>
       </c>
       <c r="P32" t="n">
-        <v>3171.032156102499</v>
+        <v>3142.665177090497</v>
       </c>
       <c r="Q32" t="n">
-        <v>3355.877716243448</v>
+        <v>3327.510737231446</v>
       </c>
       <c r="R32" t="n">
-        <v>3427.131369152274</v>
+        <v>3327.510737231446</v>
       </c>
       <c r="S32" t="n">
-        <v>3371.311118491229</v>
+        <v>3278.199034522561</v>
       </c>
       <c r="T32" t="n">
-        <v>3258.503820448549</v>
+        <v>3171.900284432043</v>
       </c>
       <c r="U32" t="n">
-        <v>3113.444395281052</v>
+        <v>3033.349407216706</v>
       </c>
       <c r="V32" t="n">
-        <v>2882.030890382474</v>
+        <v>2808.444450270289</v>
       </c>
       <c r="W32" t="n">
-        <v>2621.725159748665</v>
+        <v>2554.647267588641</v>
       </c>
       <c r="X32" t="n">
-        <v>2342.965859079626</v>
+        <v>2282.396514871763</v>
       </c>
       <c r="Y32" t="n">
-        <v>2057.168454398131</v>
+        <v>2003.107658142429</v>
       </c>
     </row>
     <row r="33">
@@ -6753,76 +6753,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>867.9086105230765</v>
+        <v>865.9161978846598</v>
       </c>
       <c r="C33" t="n">
-        <v>717.2543800831687</v>
+        <v>715.261967444752</v>
       </c>
       <c r="D33" t="n">
-        <v>587.165412704649</v>
+        <v>585.1730000662324</v>
       </c>
       <c r="E33" t="n">
-        <v>450.7189218155367</v>
+        <v>448.7265091771201</v>
       </c>
       <c r="F33" t="n">
-        <v>326.2871156986685</v>
+        <v>324.2947030602519</v>
       </c>
       <c r="G33" t="n">
-        <v>206.227297770533</v>
+        <v>204.2348851321164</v>
       </c>
       <c r="H33" t="n">
-        <v>117.9298813711339</v>
+        <v>115.9374687327173</v>
       </c>
       <c r="I33" t="n">
-        <v>68.54262738304547</v>
+        <v>66.55021474462892</v>
       </c>
       <c r="J33" t="n">
-        <v>181.6576096027729</v>
+        <v>179.6651969643563</v>
       </c>
       <c r="K33" t="n">
-        <v>501.3967556649993</v>
+        <v>179.6651969643563</v>
       </c>
       <c r="L33" t="n">
-        <v>984.9628415633126</v>
+        <v>663.2312828626696</v>
       </c>
       <c r="M33" t="n">
-        <v>1230.371419496412</v>
+        <v>1228.379006857996</v>
       </c>
       <c r="N33" t="n">
-        <v>1230.371419496412</v>
+        <v>1228.379006857996</v>
       </c>
       <c r="O33" t="n">
-        <v>1746.891702087393</v>
+        <v>1744.899289448977</v>
       </c>
       <c r="P33" t="n">
-        <v>2152.513070803791</v>
+        <v>2150.520658165374</v>
       </c>
       <c r="Q33" t="n">
-        <v>2386.878162358681</v>
+        <v>2384.885749720265</v>
       </c>
       <c r="R33" t="n">
-        <v>2362.961119256746</v>
+        <v>2360.968706618329</v>
       </c>
       <c r="S33" t="n">
-        <v>2228.030442156615</v>
+        <v>2226.038029518198</v>
       </c>
       <c r="T33" t="n">
-        <v>2051.046630355523</v>
+        <v>2049.054217717106</v>
       </c>
       <c r="U33" t="n">
-        <v>1840.983487034165</v>
+        <v>1838.991074395748</v>
       </c>
       <c r="V33" t="n">
-        <v>1618.443485405232</v>
+        <v>1616.451072766815</v>
       </c>
       <c r="W33" t="n">
-        <v>1388.326239538519</v>
+        <v>1386.333826900102</v>
       </c>
       <c r="X33" t="n">
-        <v>1199.019161888531</v>
+        <v>1197.026749250114</v>
       </c>
       <c r="Y33" t="n">
-        <v>1019.704944964038</v>
+        <v>1017.712532325621</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>389.2395048590208</v>
+        <v>341.6872565554789</v>
       </c>
       <c r="C34" t="n">
-        <v>329.727691322914</v>
+        <v>288.6839909715329</v>
       </c>
       <c r="D34" t="n">
-        <v>284.7878826233327</v>
+        <v>250.2527302241124</v>
       </c>
       <c r="E34" t="n">
-        <v>239.9223748804392</v>
+        <v>211.8957704333796</v>
       </c>
       <c r="F34" t="n">
-        <v>193.2897444913161</v>
+        <v>171.7716879964173</v>
       </c>
       <c r="G34" t="n">
-        <v>135.7289949886656</v>
+        <v>120.7194864459276</v>
       </c>
       <c r="H34" t="n">
-        <v>90.94374834806361</v>
+        <v>82.44278775748629</v>
       </c>
       <c r="I34" t="n">
-        <v>68.54262738304547</v>
+        <v>66.55021474462892</v>
       </c>
       <c r="J34" t="n">
-        <v>97.17577828920167</v>
+        <v>66.55021474462892</v>
       </c>
       <c r="K34" t="n">
-        <v>179.0108193991435</v>
+        <v>148.3852558545708</v>
       </c>
       <c r="L34" t="n">
-        <v>451.628966913329</v>
+        <v>427.382431216669</v>
       </c>
       <c r="M34" t="n">
-        <v>746.4110528919787</v>
+        <v>728.5435450432315</v>
       </c>
       <c r="N34" t="n">
-        <v>1038.091194563573</v>
+        <v>911.7331790744406</v>
       </c>
       <c r="O34" t="n">
-        <v>1309.286469245667</v>
+        <v>1189.307481604447</v>
       </c>
       <c r="P34" t="n">
-        <v>1429.162635022246</v>
+        <v>1323.033455149257</v>
       </c>
       <c r="Q34" t="n">
-        <v>1432.584831392297</v>
+        <v>1326.455651519308</v>
       </c>
       <c r="R34" t="n">
-        <v>1419.377146422778</v>
+        <v>1319.75651450195</v>
       </c>
       <c r="S34" t="n">
-        <v>1327.254367003231</v>
+        <v>1234.142283034564</v>
       </c>
       <c r="T34" t="n">
-        <v>1202.228619569369</v>
+        <v>1115.625083552863</v>
       </c>
       <c r="U34" t="n">
-        <v>1027.483132209174</v>
+        <v>947.3881441448284</v>
       </c>
       <c r="V34" t="n">
-        <v>872.197091427902</v>
+        <v>798.6106513157173</v>
       </c>
       <c r="W34" t="n">
-        <v>699.5599937569835</v>
+        <v>632.4821015969596</v>
       </c>
       <c r="X34" t="n">
-        <v>576.1729759378707</v>
+        <v>515.6036317300075</v>
       </c>
       <c r="Y34" t="n">
-        <v>463.754219152418</v>
+        <v>409.6934228967155</v>
       </c>
     </row>
     <row r="35">
@@ -6911,25 +6911,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1614.059487414178</v>
+        <v>1614.059487414177</v>
       </c>
       <c r="C35" t="n">
         <v>1352.560722599516</v>
       </c>
       <c r="D35" t="n">
-        <v>1098.796330498593</v>
+        <v>1098.796330498592</v>
       </c>
       <c r="E35" t="n">
-        <v>827.8895422975456</v>
+        <v>827.8895422975452</v>
       </c>
       <c r="F35" t="n">
-        <v>542.6718405099318</v>
+        <v>542.6718405099314</v>
       </c>
       <c r="G35" t="n">
-        <v>261.1858216803435</v>
+        <v>261.185821680343</v>
       </c>
       <c r="H35" t="n">
-        <v>68.77950792924223</v>
+        <v>68.7795079292422</v>
       </c>
       <c r="I35" t="n">
         <v>62.11912770411553</v>
@@ -6971,10 +6971,10 @@
         <v>2855.219708188068</v>
       </c>
       <c r="V35" t="n">
-        <v>2644.789635573994</v>
+        <v>2644.789635573995</v>
       </c>
       <c r="W35" t="n">
-        <v>2405.46733722469</v>
+        <v>2405.467337224691</v>
       </c>
       <c r="X35" t="n">
         <v>2147.691468840156</v>
@@ -7020,10 +7020,10 @@
         <v>494.9732559860694</v>
       </c>
       <c r="L36" t="n">
-        <v>978.5393418843826</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="M36" t="n">
-        <v>1223.947919817482</v>
+        <v>568.1699486069232</v>
       </c>
       <c r="N36" t="n">
         <v>1223.947919817482</v>
@@ -7069,52 +7069,52 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>235.9319791885594</v>
+        <v>235.9319791885592</v>
       </c>
       <c r="C37" t="n">
-        <v>197.4035979369571</v>
+        <v>197.4035979369569</v>
       </c>
       <c r="D37" t="n">
-        <v>173.4472215218803</v>
+        <v>173.4472215218802</v>
       </c>
       <c r="E37" t="n">
-        <v>149.5651460634913</v>
+        <v>149.5651460634912</v>
       </c>
       <c r="F37" t="n">
-        <v>123.9159479588727</v>
+        <v>123.9159479588726</v>
       </c>
       <c r="G37" t="n">
-        <v>87.33863074072673</v>
+        <v>87.33863074072667</v>
       </c>
       <c r="H37" t="n">
-        <v>63.53681638462917</v>
+        <v>63.53681638462914</v>
       </c>
       <c r="I37" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J37" t="n">
-        <v>161.4017547291066</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K37" t="n">
-        <v>270.9691711012525</v>
+        <v>149.5338114222406</v>
       </c>
       <c r="L37" t="n">
-        <v>435.0968109750523</v>
+        <v>313.6614512960404</v>
       </c>
       <c r="M37" t="n">
-        <v>621.3883893133163</v>
+        <v>499.9530296343044</v>
       </c>
       <c r="N37" t="n">
-        <v>804.5780233445255</v>
+        <v>683.1426636655136</v>
       </c>
       <c r="O37" t="n">
-        <v>967.2827903862335</v>
+        <v>974.9038003296503</v>
       </c>
       <c r="P37" t="n">
-        <v>1087.158956162812</v>
+        <v>1094.779966106229</v>
       </c>
       <c r="Q37" t="n">
-        <v>1090.581152532863</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="R37" t="n">
         <v>1098.20216247628</v>
@@ -7123,22 +7123,22 @@
         <v>1027.062815341238</v>
       </c>
       <c r="T37" t="n">
-        <v>923.0205001918806</v>
+        <v>923.0205001918803</v>
       </c>
       <c r="U37" t="n">
-        <v>769.25844511619</v>
+        <v>769.2584451161897</v>
       </c>
       <c r="V37" t="n">
-        <v>634.9558366194227</v>
+        <v>634.9558366194225</v>
       </c>
       <c r="W37" t="n">
-        <v>483.3021712330088</v>
+        <v>483.3021712330086</v>
       </c>
       <c r="X37" t="n">
-        <v>380.8985856984004</v>
+        <v>380.8985856984002</v>
       </c>
       <c r="Y37" t="n">
-        <v>289.4632611974523</v>
+        <v>289.463261197452</v>
       </c>
     </row>
     <row r="38">
@@ -7157,13 +7157,13 @@
         <v>1098.796330498592</v>
       </c>
       <c r="E38" t="n">
-        <v>827.8895422975454</v>
+        <v>827.8895422975452</v>
       </c>
       <c r="F38" t="n">
-        <v>542.6718405099316</v>
+        <v>542.6718405099314</v>
       </c>
       <c r="G38" t="n">
-        <v>261.1858216803432</v>
+        <v>261.1858216803431</v>
       </c>
       <c r="H38" t="n">
         <v>68.7795079292422</v>
@@ -7254,19 +7254,19 @@
         <v>175.2341099238429</v>
       </c>
       <c r="K39" t="n">
-        <v>494.9732559860694</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="L39" t="n">
-        <v>978.5393418843826</v>
+        <v>346.0196676966397</v>
       </c>
       <c r="M39" t="n">
-        <v>1223.947919817482</v>
+        <v>973.7913173233209</v>
       </c>
       <c r="N39" t="n">
-        <v>1223.947919817482</v>
+        <v>1629.56928853388</v>
       </c>
       <c r="O39" t="n">
-        <v>1740.468202408463</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="P39" t="n">
         <v>2146.089571124861</v>
@@ -7348,7 +7348,7 @@
         <v>969.3241577214669</v>
       </c>
       <c r="P40" t="n">
-        <v>1094.779966106229</v>
+        <v>1089.200323498045</v>
       </c>
       <c r="Q40" t="n">
         <v>1098.20216247628</v>
@@ -7385,25 +7385,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1853.707880260105</v>
+        <v>1340.175609875976</v>
       </c>
       <c r="C41" t="n">
-        <v>1557.973630753168</v>
+        <v>1044.441360369038</v>
       </c>
       <c r="D41" t="n">
-        <v>1269.973753959969</v>
+        <v>1043.331955516592</v>
       </c>
       <c r="E41" t="n">
-        <v>964.8314810666468</v>
+        <v>738.1896826232701</v>
       </c>
       <c r="F41" t="n">
-        <v>645.3782945867576</v>
+        <v>418.736496143381</v>
       </c>
       <c r="G41" t="n">
-        <v>329.6567910648939</v>
+        <v>103.0149926215174</v>
       </c>
       <c r="H41" t="n">
-        <v>103.0149926215175</v>
+        <v>103.0149926215174</v>
       </c>
       <c r="I41" t="n">
         <v>62.11912770411553</v>
@@ -7442,19 +7442,19 @@
         <v>2910.82473168651</v>
       </c>
       <c r="U41" t="n">
-        <v>2752.513254111242</v>
+        <v>2752.513254111243</v>
       </c>
       <c r="V41" t="n">
         <v>2507.847696804894</v>
       </c>
       <c r="W41" t="n">
-        <v>2507.847696804894</v>
+        <v>2234.289913763315</v>
       </c>
       <c r="X41" t="n">
-        <v>2455.810831070634</v>
+        <v>1942.278560686505</v>
       </c>
       <c r="Y41" t="n">
-        <v>2156.761373981368</v>
+        <v>1643.229103597239</v>
       </c>
     </row>
     <row r="42">
@@ -7488,25 +7488,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J42" t="n">
-        <v>175.2341099238429</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K42" t="n">
-        <v>494.9732559860694</v>
+        <v>381.858273766342</v>
       </c>
       <c r="L42" t="n">
-        <v>978.5393418843826</v>
+        <v>381.858273766342</v>
       </c>
       <c r="M42" t="n">
-        <v>1223.947919817482</v>
+        <v>1009.629923393023</v>
       </c>
       <c r="N42" t="n">
-        <v>1223.947919817482</v>
+        <v>1665.407894603582</v>
       </c>
       <c r="O42" t="n">
-        <v>1740.468202408463</v>
+        <v>2181.928177194563</v>
       </c>
       <c r="P42" t="n">
-        <v>2146.089571124861</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q42" t="n">
         <v>2380.454662679751</v>
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>475.5803720344864</v>
+        <v>475.5803720344858</v>
       </c>
       <c r="C43" t="n">
-        <v>402.8165060906088</v>
+        <v>402.8165060906083</v>
       </c>
       <c r="D43" t="n">
-        <v>344.6246449832568</v>
+        <v>344.6246449832563</v>
       </c>
       <c r="E43" t="n">
-        <v>286.5070848325925</v>
+        <v>286.5070848325921</v>
       </c>
       <c r="F43" t="n">
-        <v>226.6224020356986</v>
+        <v>226.6224020356983</v>
       </c>
       <c r="G43" t="n">
-        <v>155.8096001252773</v>
+        <v>155.8096001252771</v>
       </c>
       <c r="H43" t="n">
-        <v>97.77230107690445</v>
+        <v>97.77230107690437</v>
       </c>
       <c r="I43" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J43" t="n">
-        <v>127.8475561822076</v>
+        <v>68.2319501674381</v>
       </c>
       <c r="K43" t="n">
-        <v>305.184768367679</v>
+        <v>245.5691623529096</v>
       </c>
       <c r="L43" t="n">
-        <v>564.8145793170083</v>
+        <v>505.198973302239</v>
       </c>
       <c r="M43" t="n">
-        <v>786.9927227160349</v>
+        <v>786.9927227160326</v>
       </c>
       <c r="N43" t="n">
-        <v>1065.684527822774</v>
+        <v>1065.684527822772</v>
       </c>
       <c r="O43" t="n">
-        <v>1323.891465940011</v>
+        <v>1323.891465940009</v>
       </c>
       <c r="P43" t="n">
-        <v>1539.269802792119</v>
+        <v>1539.269802792117</v>
       </c>
       <c r="Q43" t="n">
-        <v>1638.1941702377</v>
+        <v>1638.194170237698</v>
       </c>
       <c r="R43" t="n">
-        <v>1611.73443286041</v>
+        <v>1611.734432860408</v>
       </c>
       <c r="S43" t="n">
-        <v>1506.359601033092</v>
+        <v>1506.359601033091</v>
       </c>
       <c r="T43" t="n">
-        <v>1368.08180119146</v>
+        <v>1368.081801191458</v>
       </c>
       <c r="U43" t="n">
-        <v>1180.084261423494</v>
+        <v>1180.084261423493</v>
       </c>
       <c r="V43" t="n">
-        <v>1011.546168234451</v>
+        <v>1011.54616823445</v>
       </c>
       <c r="W43" t="n">
-        <v>825.6570181557618</v>
+        <v>825.6570181557609</v>
       </c>
       <c r="X43" t="n">
-        <v>689.017947928878</v>
+        <v>689.0179479288772</v>
       </c>
       <c r="Y43" t="n">
-        <v>563.3471387356545</v>
+        <v>563.3471387356539</v>
       </c>
     </row>
     <row r="44">
@@ -7622,19 +7622,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1567.559390520059</v>
+        <v>1340.175609875975</v>
       </c>
       <c r="C44" t="n">
-        <v>1271.825141013123</v>
+        <v>1044.441360369039</v>
       </c>
       <c r="D44" t="n">
-        <v>983.8252642199236</v>
+        <v>1002.43609059919</v>
       </c>
       <c r="E44" t="n">
-        <v>678.6829913266013</v>
+        <v>697.293817705868</v>
       </c>
       <c r="F44" t="n">
-        <v>359.229804846713</v>
+        <v>377.8406312259791</v>
       </c>
       <c r="G44" t="n">
         <v>62.11912770411553</v>
@@ -7673,25 +7673,25 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S44" t="n">
-        <v>3105.956385205776</v>
+        <v>3036.88408213696</v>
       </c>
       <c r="T44" t="n">
-        <v>2979.897034755326</v>
+        <v>2910.82473168651</v>
       </c>
       <c r="U44" t="n">
-        <v>2979.897034755326</v>
+        <v>2752.513254111242</v>
       </c>
       <c r="V44" t="n">
-        <v>2735.231477448978</v>
+        <v>2507.847696804894</v>
       </c>
       <c r="W44" t="n">
-        <v>2461.673694407398</v>
+        <v>2234.289913763314</v>
       </c>
       <c r="X44" t="n">
-        <v>2169.662341330588</v>
+        <v>1942.278560686504</v>
       </c>
       <c r="Y44" t="n">
-        <v>1870.612884241322</v>
+        <v>1643.229103597238</v>
       </c>
     </row>
     <row r="45">
@@ -7725,19 +7725,19 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J45" t="n">
-        <v>175.2341099238429</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K45" t="n">
-        <v>494.9732559860694</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="L45" t="n">
-        <v>978.5393418843826</v>
+        <v>456.9185815712231</v>
       </c>
       <c r="M45" t="n">
-        <v>1223.947919817482</v>
+        <v>1084.690231197904</v>
       </c>
       <c r="N45" t="n">
-        <v>1223.947919817482</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="O45" t="n">
         <v>1740.468202408463</v>
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>475.5803720344863</v>
+        <v>475.5803720344858</v>
       </c>
       <c r="C46" t="n">
-        <v>402.8165060906088</v>
+        <v>402.8165060906083</v>
       </c>
       <c r="D46" t="n">
-        <v>344.6246449832567</v>
+        <v>344.6246449832563</v>
       </c>
       <c r="E46" t="n">
-        <v>286.5070848325924</v>
+        <v>286.5070848325921</v>
       </c>
       <c r="F46" t="n">
-        <v>226.6224020356985</v>
+        <v>226.6224020356983</v>
       </c>
       <c r="G46" t="n">
-        <v>155.8096001252773</v>
+        <v>155.8096001252771</v>
       </c>
       <c r="H46" t="n">
-        <v>97.77230107690444</v>
+        <v>97.77230107690437</v>
       </c>
       <c r="I46" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J46" t="n">
-        <v>68.2319501674404</v>
+        <v>127.8475561822077</v>
       </c>
       <c r="K46" t="n">
-        <v>245.5691623529118</v>
+        <v>305.1847683676791</v>
       </c>
       <c r="L46" t="n">
-        <v>505.1989733022411</v>
+        <v>564.8145793170086</v>
       </c>
       <c r="M46" t="n">
-        <v>786.9927227160347</v>
+        <v>846.6083287308022</v>
       </c>
       <c r="N46" t="n">
-        <v>1065.684527822773</v>
+        <v>1065.684527822772</v>
       </c>
       <c r="O46" t="n">
-        <v>1323.891465940011</v>
+        <v>1323.891465940009</v>
       </c>
       <c r="P46" t="n">
-        <v>1539.269802792119</v>
+        <v>1539.269802792117</v>
       </c>
       <c r="Q46" t="n">
-        <v>1638.194170237699</v>
+        <v>1638.194170237698</v>
       </c>
       <c r="R46" t="n">
-        <v>1611.734432860409</v>
+        <v>1611.734432860408</v>
       </c>
       <c r="S46" t="n">
-        <v>1506.359601033092</v>
+        <v>1506.359601033091</v>
       </c>
       <c r="T46" t="n">
-        <v>1368.081801191459</v>
+        <v>1368.081801191458</v>
       </c>
       <c r="U46" t="n">
         <v>1180.084261423493</v>
       </c>
       <c r="V46" t="n">
-        <v>1011.546168234451</v>
+        <v>1011.54616823445</v>
       </c>
       <c r="W46" t="n">
-        <v>825.6570181557616</v>
+        <v>825.6570181557609</v>
       </c>
       <c r="X46" t="n">
-        <v>689.0179479288779</v>
+        <v>689.0179479288772</v>
       </c>
       <c r="Y46" t="n">
-        <v>563.3471387356544</v>
+        <v>563.3471387356539</v>
       </c>
     </row>
   </sheetData>
@@ -7976,28 +7976,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>117.6798379423461</v>
+        <v>123.8044614350461</v>
       </c>
       <c r="K2" t="n">
         <v>505.666843611017</v>
       </c>
       <c r="L2" t="n">
-        <v>566.3934726271932</v>
+        <v>651.5514946987026</v>
       </c>
       <c r="M2" t="n">
-        <v>680.8592833107125</v>
+        <v>149.7250515977273</v>
       </c>
       <c r="N2" t="n">
-        <v>149.1184913377841</v>
+        <v>655.3475650705625</v>
       </c>
       <c r="O2" t="n">
         <v>594.0482827698827</v>
       </c>
       <c r="P2" t="n">
-        <v>502.0059847475129</v>
+        <v>150.3014472409252</v>
       </c>
       <c r="Q2" t="n">
-        <v>144.4986984183922</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R2" t="n">
         <v>102.5176150018526</v>
@@ -8064,13 +8064,13 @@
         <v>90.06034685691823</v>
       </c>
       <c r="M3" t="n">
-        <v>623.5213537622971</v>
+        <v>598.6161957820902</v>
       </c>
       <c r="N3" t="n">
-        <v>166.1573754749253</v>
+        <v>107.9567559936368</v>
       </c>
       <c r="O3" t="n">
-        <v>614.4252180716981</v>
+        <v>598.9166326216673</v>
       </c>
       <c r="P3" t="n">
         <v>496.801919078302</v>
@@ -8213,7 +8213,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>117.6798379423461</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K5" t="n">
         <v>505.666843611017</v>
@@ -8222,19 +8222,19 @@
         <v>651.5514946987026</v>
       </c>
       <c r="M5" t="n">
-        <v>680.8592833107125</v>
+        <v>164.2633295905291</v>
       </c>
       <c r="N5" t="n">
-        <v>680.2527230507693</v>
+        <v>149.1184913377841</v>
       </c>
       <c r="O5" t="n">
-        <v>329.4605664919757</v>
+        <v>594.0482827698827</v>
       </c>
       <c r="P5" t="n">
-        <v>150.3014472409252</v>
+        <v>502.0059847475129</v>
       </c>
       <c r="Q5" t="n">
-        <v>144.4986984183922</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R5" t="n">
         <v>102.5176150018526</v>
@@ -8292,28 +8292,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J6" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K6" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L6" t="n">
-        <v>90.06034685691823</v>
+        <v>138.6093284369037</v>
       </c>
       <c r="M6" t="n">
-        <v>623.5213537622971</v>
+        <v>598.6161957820902</v>
       </c>
       <c r="N6" t="n">
-        <v>489.1262098812145</v>
+        <v>591.601186586945</v>
       </c>
       <c r="O6" t="n">
-        <v>614.4252180716981</v>
+        <v>598.9166326216673</v>
       </c>
       <c r="P6" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q6" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R6" t="n">
         <v>71.01380490566048</v>
@@ -8450,16 +8450,16 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>117.6798379423461</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K8" t="n">
-        <v>457.3649271011935</v>
+        <v>505.666843611017</v>
       </c>
       <c r="L8" t="n">
         <v>651.5514946987026</v>
       </c>
       <c r="M8" t="n">
-        <v>701.2411122488187</v>
+        <v>320.115627001847</v>
       </c>
       <c r="N8" t="n">
         <v>682.2612020826953</v>
@@ -8471,7 +8471,7 @@
         <v>150.3014472409252</v>
       </c>
       <c r="Q8" t="n">
-        <v>144.4986984183922</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R8" t="n">
         <v>102.5176150018526</v>
@@ -8532,19 +8532,19 @@
         <v>196.7020151310378</v>
       </c>
       <c r="K9" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L9" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M9" t="n">
-        <v>92.38712204931191</v>
+        <v>683.7992483186069</v>
       </c>
       <c r="N9" t="n">
-        <v>676.7842391234617</v>
+        <v>586.5539326316472</v>
       </c>
       <c r="O9" t="n">
-        <v>270.9005442600802</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P9" t="n">
         <v>496.801919078302</v>
@@ -8766,7 +8766,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J12" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K12" t="n">
         <v>89.59693533333335</v>
@@ -8775,10 +8775,10 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M12" t="n">
-        <v>726.4998994499999</v>
+        <v>351.8313913012159</v>
       </c>
       <c r="N12" t="n">
-        <v>258.8480380294549</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O12" t="n">
         <v>614.4252180716981</v>
@@ -8945,7 +8945,7 @@
         <v>502.0059847475129</v>
       </c>
       <c r="Q14" t="n">
-        <v>331.2113854294514</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R14" t="n">
         <v>102.5176150018526</v>
@@ -9012,19 +9012,19 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M15" t="n">
-        <v>726.4998994499999</v>
+        <v>199.6102425680207</v>
       </c>
       <c r="N15" t="n">
-        <v>345.5977578821532</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O15" t="n">
-        <v>614.4252180716981</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P15" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q15" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R15" t="n">
         <v>71.01380490566048</v>
@@ -9246,19 +9246,19 @@
         <v>412.5657697396227</v>
       </c>
       <c r="L18" t="n">
-        <v>578.5109386733963</v>
+        <v>461.3398360504045</v>
       </c>
       <c r="M18" t="n">
-        <v>92.38712204931191</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N18" t="n">
-        <v>333.2595653118431</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O18" t="n">
-        <v>614.4252180716981</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P18" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q18" t="n">
         <v>327.7205688679246</v>
@@ -9480,16 +9480,16 @@
         <v>196.7020151310378</v>
       </c>
       <c r="K21" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L21" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M21" t="n">
-        <v>340.2745745069883</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N21" t="n">
-        <v>85.37211285416666</v>
+        <v>510.5662141339224</v>
       </c>
       <c r="O21" t="n">
         <v>614.4252180716981</v>
@@ -9650,7 +9650,7 @@
         <v>682.2612020826953</v>
       </c>
       <c r="O23" t="n">
-        <v>594.0482827698827</v>
+        <v>594.0482827698837</v>
       </c>
       <c r="P23" t="n">
         <v>502.0059847475129</v>
@@ -9714,22 +9714,22 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J24" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K24" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L24" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M24" t="n">
-        <v>340.2745745069883</v>
+        <v>636.8366347720143</v>
       </c>
       <c r="N24" t="n">
-        <v>85.37211285416666</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O24" t="n">
-        <v>614.4252180716981</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P24" t="n">
         <v>496.801919078302</v>
@@ -9954,13 +9954,13 @@
         <v>196.7020151310378</v>
       </c>
       <c r="K27" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L27" t="n">
-        <v>578.5109386733963</v>
+        <v>515.2544481366735</v>
       </c>
       <c r="M27" t="n">
-        <v>340.274574506988</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N27" t="n">
         <v>85.37211285416666</v>
@@ -10197,13 +10197,13 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M30" t="n">
-        <v>340.274574506988</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N30" t="n">
         <v>85.37211285416666</v>
       </c>
       <c r="O30" t="n">
-        <v>614.4252180716981</v>
+        <v>228.1998931286863</v>
       </c>
       <c r="P30" t="n">
         <v>496.801919078302</v>
@@ -10428,13 +10428,13 @@
         <v>196.7020151310378</v>
       </c>
       <c r="K33" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L33" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M33" t="n">
-        <v>340.2745745069883</v>
+        <v>663.2434089132776</v>
       </c>
       <c r="N33" t="n">
         <v>85.37211285416666</v>
@@ -10668,13 +10668,13 @@
         <v>412.5657697396227</v>
       </c>
       <c r="L36" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M36" t="n">
-        <v>340.2745745069883</v>
+        <v>166.3231752016895</v>
       </c>
       <c r="N36" t="n">
-        <v>85.37211285416666</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O36" t="n">
         <v>614.4252180716981</v>
@@ -10829,7 +10829,7 @@
         <v>651.5514946987026</v>
       </c>
       <c r="M38" t="n">
-        <v>701.2411122488188</v>
+        <v>701.2411122488187</v>
       </c>
       <c r="N38" t="n">
         <v>682.2612020826953</v>
@@ -10902,22 +10902,22 @@
         <v>196.7020151310378</v>
       </c>
       <c r="K39" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L39" t="n">
-        <v>578.5109386733963</v>
+        <v>262.5710112738847</v>
       </c>
       <c r="M39" t="n">
-        <v>340.2745745069883</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N39" t="n">
-        <v>85.37211285416666</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O39" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P39" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q39" t="n">
         <v>327.7205688679246</v>
@@ -11136,28 +11136,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J42" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K42" t="n">
         <v>412.5657697396227</v>
       </c>
       <c r="L42" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M42" t="n">
-        <v>340.2745745069883</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N42" t="n">
-        <v>85.37211285416666</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O42" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P42" t="n">
-        <v>496.801919078302</v>
+        <v>287.6151683397065</v>
       </c>
       <c r="Q42" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R42" t="n">
         <v>71.01380490566048</v>
@@ -11373,22 +11373,22 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J45" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K45" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L45" t="n">
-        <v>578.5109386733963</v>
+        <v>488.8476739954107</v>
       </c>
       <c r="M45" t="n">
-        <v>340.2745745069883</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N45" t="n">
-        <v>85.37211285416666</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O45" t="n">
-        <v>614.4252180716981</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P45" t="n">
         <v>496.801919078302</v>
@@ -23255,7 +23255,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>302.4985237799664</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -23264,13 +23264,13 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>230.4905691364591</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>315.0398534825604</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -23315,7 +23315,7 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>243.0318988390519</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -23498,10 +23498,10 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>14.11306200385772</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>304.5664151603044</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -23510,10 +23510,10 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>226.8509454548578</v>
       </c>
       <c r="I14" t="n">
-        <v>42.96247126414336</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,19 +23543,19 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>70.85714503404348</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>158.4130361137532</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>273.2977702070789</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -23750,7 +23750,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>1.287858708565182e-13</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23783,7 +23783,7 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>1.108446667785756e-12</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -25631,7 +25631,7 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>284.0215672213453</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -25643,7 +25643,7 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>224.3753804589423</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -25688,10 +25688,10 @@
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>270.8222052111636</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>237.5747424691245</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -25868,7 +25868,7 @@
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>243.5346609531162</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -25877,13 +25877,13 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>18.42471811547347</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>224.3753804589424</v>
+        <v>224.3753804589423</v>
       </c>
       <c r="I44" t="n">
-        <v>40.48690626822795</v>
+        <v>40.48690626822788</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25913,13 +25913,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>68.38158003812808</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>156.7283627995155</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>645283.4028722406</v>
+        <v>644381.0814516002</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>645283.4028722406</v>
+        <v>644381.0814516002</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>614931.6960994803</v>
+        <v>614931.6960994801</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>614931.6960994803</v>
+        <v>614931.6960994801</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>651842.284493883</v>
+        <v>651842.2844938831</v>
       </c>
     </row>
     <row r="8">
@@ -26311,10 +26311,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>649195.8411360843</v>
+        <v>649195.8411360848</v>
       </c>
       <c r="C2" t="n">
-        <v>649195.8411360842</v>
+        <v>649195.8411360844</v>
       </c>
       <c r="D2" t="n">
         <v>649195.8411360842</v>
@@ -26326,34 +26326,34 @@
         <v>610114.0416596583</v>
       </c>
       <c r="G2" t="n">
-        <v>649195.8411360856</v>
+        <v>649195.8411360859</v>
       </c>
       <c r="H2" t="n">
-        <v>649195.8411360858</v>
+        <v>649195.8411360857</v>
       </c>
       <c r="I2" t="n">
         <v>649195.8411360857</v>
       </c>
       <c r="J2" t="n">
-        <v>649195.8411360852</v>
+        <v>649195.8411360851</v>
       </c>
       <c r="K2" t="n">
-        <v>649195.8411360853</v>
+        <v>649195.8411360851</v>
       </c>
       <c r="L2" t="n">
-        <v>649195.8411360839</v>
+        <v>649195.8411360855</v>
       </c>
       <c r="M2" t="n">
-        <v>649195.8411360859</v>
+        <v>649195.8411360856</v>
       </c>
       <c r="N2" t="n">
-        <v>649195.8411360857</v>
+        <v>649195.8411360856</v>
       </c>
       <c r="O2" t="n">
-        <v>612774.2838042678</v>
+        <v>612774.2838042683</v>
       </c>
       <c r="P2" t="n">
-        <v>612774.2838042682</v>
+        <v>612774.2838042683</v>
       </c>
     </row>
     <row r="3">
@@ -26363,13 +26363,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>177995.2971343507</v>
+        <v>169649.0058765499</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>18724.12238602654</v>
+        <v>26460.41160941818</v>
       </c>
       <c r="E3" t="n">
         <v>130452.9311377121</v>
@@ -26387,22 +26387,22 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>221845.8749469666</v>
+        <v>215329.5897923933</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>41571.03337670112</v>
+        <v>46725.80335481244</v>
       </c>
       <c r="M3" t="n">
-        <v>42731.27693436849</v>
+        <v>43782.97194555667</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>18983.55983015681</v>
+        <v>18983.55983015684</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,10 +26415,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>202745.5458432093</v>
+        <v>208555.398698792</v>
       </c>
       <c r="C4" t="n">
-        <v>202745.5458432093</v>
+        <v>208555.398698792</v>
       </c>
       <c r="D4" t="n">
         <v>188683.9728110359</v>
@@ -26445,7 +26445,7 @@
         <v>161306.7834561731</v>
       </c>
       <c r="L4" t="n">
-        <v>160983.928801512</v>
+        <v>160850.5341924572</v>
       </c>
       <c r="M4" t="n">
         <v>160556.29099179</v>
@@ -26467,10 +26467,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>65920.5612881495</v>
+        <v>64406.32768295292</v>
       </c>
       <c r="C5" t="n">
-        <v>65920.5612881495</v>
+        <v>64406.32768295292</v>
       </c>
       <c r="D5" t="n">
         <v>69585.45727717315</v>
@@ -26485,19 +26485,19 @@
         <v>58169.76931551966</v>
       </c>
       <c r="H5" t="n">
+        <v>58169.76931551966</v>
+      </c>
+      <c r="I5" t="n">
         <v>58169.76931551967</v>
       </c>
-      <c r="I5" t="n">
-        <v>58169.76931551966</v>
-      </c>
       <c r="J5" t="n">
-        <v>63659.04525391951</v>
+        <v>63659.0452539195</v>
       </c>
       <c r="K5" t="n">
         <v>63659.0452539195</v>
       </c>
       <c r="L5" t="n">
-        <v>61305.21346446767</v>
+        <v>60332.67530588339</v>
       </c>
       <c r="M5" t="n">
         <v>58169.76931551966</v>
@@ -26506,10 +26506,10 @@
         <v>58169.76931551966</v>
       </c>
       <c r="O5" t="n">
-        <v>55320.40778255072</v>
+        <v>55320.40778255073</v>
       </c>
       <c r="P5" t="n">
-        <v>55320.40778255072</v>
+        <v>55320.40778255073</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>202534.4368703748</v>
+        <v>206585.1088777899</v>
       </c>
       <c r="C6" t="n">
-        <v>380529.7340047254</v>
+        <v>376234.1147543394</v>
       </c>
       <c r="D6" t="n">
-        <v>372202.2886618485</v>
+        <v>364465.9994384568</v>
       </c>
       <c r="E6" t="n">
-        <v>288596.8506647291</v>
+        <v>288488.2901106279</v>
       </c>
       <c r="F6" t="n">
-        <v>419049.7818024412</v>
+        <v>418941.22124834</v>
       </c>
       <c r="G6" t="n">
-        <v>401374.8249557616</v>
+        <v>401374.824955762</v>
       </c>
       <c r="H6" t="n">
-        <v>430469.7808287761</v>
+        <v>430469.780828776</v>
       </c>
       <c r="I6" t="n">
         <v>430469.780828776</v>
       </c>
       <c r="J6" t="n">
-        <v>202384.137479026</v>
+        <v>208900.4226335992</v>
       </c>
       <c r="K6" t="n">
-        <v>424230.0124259927</v>
+        <v>424230.0124259925</v>
       </c>
       <c r="L6" t="n">
-        <v>385335.6654934031</v>
+        <v>381286.8282829324</v>
       </c>
       <c r="M6" t="n">
-        <v>387738.5038944077</v>
+        <v>386686.8088832192</v>
       </c>
       <c r="N6" t="n">
-        <v>430469.780828776</v>
+        <v>430469.7808287759</v>
       </c>
       <c r="O6" t="n">
-        <v>400843.7299442608</v>
+        <v>400742.5589516729</v>
       </c>
       <c r="P6" t="n">
-        <v>419827.2897744181</v>
+        <v>419726.1187818298</v>
       </c>
     </row>
   </sheetData>
@@ -26707,13 +26707,13 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J2" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="K2" t="n">
         <v>93.99127447431646</v>
       </c>
       <c r="L2" t="n">
-        <v>109.5863713539249</v>
+        <v>116.0298338265641</v>
       </c>
       <c r="M2" t="n">
         <v>130.3599693155844</v>
@@ -26722,10 +26722,10 @@
         <v>130.3599693155844</v>
       </c>
       <c r="O2" t="n">
-        <v>96.46683947023185</v>
+        <v>96.46683947023193</v>
       </c>
       <c r="P2" t="n">
-        <v>96.46683947023186</v>
+        <v>96.46683947023193</v>
       </c>
     </row>
     <row r="3">
@@ -26787,10 +26787,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>531.1342317129852</v>
+        <v>506.2290737327784</v>
       </c>
       <c r="C4" t="n">
-        <v>531.1342317129852</v>
+        <v>506.2290737327784</v>
       </c>
       <c r="D4" t="n">
         <v>591.4121262692951</v>
@@ -26805,7 +26805,7 @@
         <v>776.4890963014441</v>
       </c>
       <c r="H4" t="n">
-        <v>776.4890963014442</v>
+        <v>776.4890963014441</v>
       </c>
       <c r="I4" t="n">
         <v>776.4890963014442</v>
@@ -26814,10 +26814,10 @@
         <v>917.0607368443782</v>
       </c>
       <c r="K4" t="n">
-        <v>917.0607368443783</v>
+        <v>917.0607368443782</v>
       </c>
       <c r="L4" t="n">
-        <v>856.7828422880684</v>
+        <v>831.8776843078615</v>
       </c>
       <c r="M4" t="n">
         <v>776.4890963014441</v>
@@ -26929,22 +26929,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>57.62257963304857</v>
+        <v>57.62257963304853</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>51.9637917208764</v>
+        <v>58.40725419351556</v>
       </c>
       <c r="M2" t="n">
-        <v>20.77359796165945</v>
+        <v>14.33013548902032</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>23.72944978769601</v>
+        <v>23.72944978769605</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27009,13 +27009,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>531.1342317129852</v>
+        <v>506.2290737327784</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>60.27789455630989</v>
+        <v>85.1830525365167</v>
       </c>
       <c r="E4" t="n">
         <v>185.076970032149</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>671.7058722559192</v>
+        <v>646.8007142757124</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>104.7832240455247</v>
+        <v>129.6883820257316</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>57.62257963304857</v>
+        <v>57.62257963304853</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27255,13 +27255,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>531.1342317129852</v>
+        <v>506.2290737327784</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>60.27789455630989</v>
+        <v>85.1830525365167</v>
       </c>
       <c r="M4" t="n">
         <v>185.076970032149</v>
@@ -27376,10 +27376,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C2" t="n">
-        <v>197.6688233289434</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D2" t="n">
         <v>381.5867174954989</v>
@@ -27388,13 +27388,13 @@
         <v>398.5576896346209</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>136.9537457384598</v>
@@ -27427,25 +27427,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>367.2890446813954</v>
+        <v>160.9220412857373</v>
       </c>
       <c r="X2" t="n">
         <v>385.5580790162737</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="3">
@@ -27455,7 +27455,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>150.2783710965517</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -27470,7 +27470,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>97.61862951051411</v>
+        <v>43.99219550354874</v>
       </c>
       <c r="H3" t="n">
         <v>87.41444223540508</v>
@@ -27534,28 +27534,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>183.3559385043883</v>
+        <v>128.1091850427963</v>
       </c>
       <c r="C4" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>53.73337658004174</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,16 +27582,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>200.7879229792761</v>
       </c>
       <c r="T4" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>263.319551727384</v>
@@ -27622,16 +27622,16 @@
         <v>381.5867174954989</v>
       </c>
       <c r="E5" t="n">
-        <v>112.9526049963146</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>320.8422199291742</v>
+        <v>236.9951326713816</v>
       </c>
       <c r="I5" t="n">
         <v>136.9537457384598</v>
@@ -27661,16 +27661,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>338.6857412035168</v>
@@ -27679,10 +27679,10 @@
         <v>367.2890446813954</v>
       </c>
       <c r="X5" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="6">
@@ -27710,10 +27710,10 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>87.41444223540508</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>15.34787464026198</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27740,13 +27740,13 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>23.6778726709161</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>133.5813703291298</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>76.66721019408054</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
@@ -27755,7 +27755,7 @@
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>227.816073408046</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
@@ -27783,7 +27783,7 @@
         <v>154.0032240193895</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G7" t="n">
         <v>166.5715133615489</v>
@@ -27822,16 +27822,16 @@
         <v>122.6619794737488</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T7" t="n">
-        <v>233.3618613134482</v>
+        <v>19.34431822393046</v>
       </c>
       <c r="U7" t="n">
         <v>282.5844038405181</v>
       </c>
       <c r="V7" t="n">
-        <v>142.5230553289151</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>280.4970980481341</v>
@@ -27850,28 +27850,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>92.48239428282</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>136.9537457384598</v>
+        <v>43.0921593262744</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,16 +27898,16 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>338.6857412035168</v>
@@ -27919,7 +27919,7 @@
         <v>385.5580790162737</v>
       </c>
       <c r="Y8" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28011,13 +28011,13 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F10" t="n">
         <v>155.7526754391568</v>
@@ -28059,25 +28059,25 @@
         <v>122.6619794737488</v>
       </c>
       <c r="S10" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>233.3618613134482</v>
+        <v>220.1322412032064</v>
       </c>
       <c r="U10" t="n">
         <v>282.5844038405181</v>
       </c>
       <c r="V10" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>280.4970980481341</v>
       </c>
       <c r="X10" t="n">
-        <v>220.1269184951917</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="11">
@@ -28521,7 +28521,7 @@
         <v>93.99127447431646</v>
       </c>
       <c r="O16" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431636</v>
       </c>
       <c r="P16" t="n">
         <v>93.99127447431646</v>
@@ -28743,10 +28743,10 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J19" t="n">
-        <v>30.07448747215907</v>
+        <v>35.71049010668816</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="L19" t="n">
         <v>0</v>
@@ -28761,13 +28761,13 @@
         <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>128.2979821082778</v>
+        <v>0</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>130.3599693155844</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S19" t="n">
         <v>130.3599693155844</v>
@@ -28986,22 +28986,22 @@
         <v>0</v>
       </c>
       <c r="L22" t="n">
+        <v>0</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O22" t="n">
+        <v>0</v>
+      </c>
+      <c r="P22" t="n">
         <v>130.3599693155844</v>
       </c>
-      <c r="M22" t="n">
-        <v>5.636002634529177</v>
-      </c>
-      <c r="N22" t="n">
-        <v>0</v>
-      </c>
-      <c r="O22" t="n">
-        <v>0</v>
-      </c>
-      <c r="P22" t="n">
-        <v>0</v>
-      </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>5.636002634529005</v>
       </c>
       <c r="R22" t="n">
         <v>122.6619794737488</v>
@@ -29217,7 +29217,7 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J25" t="n">
-        <v>30.07448747215907</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -29229,13 +29229,13 @@
         <v>0</v>
       </c>
       <c r="N25" t="n">
-        <v>0</v>
+        <v>35.71049010668813</v>
       </c>
       <c r="O25" t="n">
-        <v>5.63600263452949</v>
+        <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>130.3599693155844</v>
+        <v>0</v>
       </c>
       <c r="Q25" t="n">
         <v>0</v>
@@ -29272,76 +29272,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="C26" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="D26" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="E26" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="F26" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="G26" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="H26" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="I26" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="J26" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="K26" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="L26" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="M26" t="n">
         <v>30.27223765901226</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="O26" t="n">
         <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>93.99127447431647</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="R26" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="S26" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="T26" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="U26" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="V26" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="W26" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="X26" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="Y26" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="C28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="D28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="E28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="F28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="G28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="H28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="I28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="J28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="K28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="L28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="M28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="N28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="O28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="P28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="Q28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="R28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="S28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="T28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="U28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="V28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="W28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="X28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="Y28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
     </row>
     <row r="29">
@@ -29536,25 +29536,25 @@
         <v>93.99127447431646</v>
       </c>
       <c r="K29" t="n">
-        <v>93.99127447431646</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
         <v>93.99127447431646</v>
       </c>
       <c r="M29" t="n">
-        <v>30.27223765901272</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="P29" t="n">
-        <v>93.99127447431646</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>93.99127447431646</v>
+        <v>30.27223765901226</v>
       </c>
       <c r="R29" t="n">
         <v>93.99127447431646</v>
@@ -29691,7 +29691,7 @@
         <v>93.99127447431646</v>
       </c>
       <c r="J31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431634</v>
       </c>
       <c r="K31" t="n">
         <v>93.99127447431646</v>
@@ -29746,28 +29746,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>109.5863713539249</v>
+        <v>116.0298338265641</v>
       </c>
       <c r="C32" t="n">
-        <v>109.5863713539249</v>
+        <v>116.0298338265641</v>
       </c>
       <c r="D32" t="n">
-        <v>109.5863713539249</v>
+        <v>116.0298338265641</v>
       </c>
       <c r="E32" t="n">
-        <v>109.5863713539249</v>
+        <v>116.0298338265641</v>
       </c>
       <c r="F32" t="n">
-        <v>109.5863713539249</v>
+        <v>116.0298338265641</v>
       </c>
       <c r="G32" t="n">
-        <v>109.5863713539249</v>
+        <v>116.0298338265641</v>
       </c>
       <c r="H32" t="n">
-        <v>109.5863713539249</v>
+        <v>116.0298338265641</v>
       </c>
       <c r="I32" t="n">
-        <v>109.5863713539249</v>
+        <v>116.0298338265641</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -29776,16 +29776,16 @@
         <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>109.5863713539249</v>
+        <v>103.2865954513716</v>
       </c>
       <c r="M32" t="n">
-        <v>109.5863713539249</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>26.78466270502065</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>116.0298338265641</v>
       </c>
       <c r="P32" t="n">
         <v>0</v>
@@ -29794,28 +29794,28 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>109.5863713539249</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S32" t="n">
-        <v>109.5863713539249</v>
+        <v>116.0298338265641</v>
       </c>
       <c r="T32" t="n">
-        <v>109.5863713539249</v>
+        <v>116.0298338265641</v>
       </c>
       <c r="U32" t="n">
-        <v>109.5863713539249</v>
+        <v>116.0298338265641</v>
       </c>
       <c r="V32" t="n">
-        <v>109.5863713539249</v>
+        <v>116.0298338265641</v>
       </c>
       <c r="W32" t="n">
-        <v>109.5863713539249</v>
+        <v>116.0298338265641</v>
       </c>
       <c r="X32" t="n">
-        <v>109.5863713539249</v>
+        <v>116.0298338265641</v>
       </c>
       <c r="Y32" t="n">
-        <v>109.5863713539249</v>
+        <v>116.0298338265641</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>109.5863713539249</v>
+        <v>116.0298338265641</v>
       </c>
       <c r="C34" t="n">
-        <v>109.5863713539249</v>
+        <v>116.0298338265641</v>
       </c>
       <c r="D34" t="n">
-        <v>109.5863713539249</v>
+        <v>116.0298338265641</v>
       </c>
       <c r="E34" t="n">
-        <v>109.5863713539249</v>
+        <v>116.0298338265641</v>
       </c>
       <c r="F34" t="n">
-        <v>109.5863713539249</v>
+        <v>116.0298338265641</v>
       </c>
       <c r="G34" t="n">
-        <v>109.5863713539249</v>
+        <v>116.0298338265641</v>
       </c>
       <c r="H34" t="n">
-        <v>109.5863713539249</v>
+        <v>116.0298338265641</v>
       </c>
       <c r="I34" t="n">
-        <v>109.5863713539249</v>
+        <v>116.0298338265641</v>
       </c>
       <c r="J34" t="n">
-        <v>58.9968621248421</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>109.5863713539249</v>
+        <v>116.0298338265641</v>
       </c>
       <c r="M34" t="n">
-        <v>109.5863713539249</v>
+        <v>116.0298338265641</v>
       </c>
       <c r="N34" t="n">
-        <v>109.5863713539249</v>
+        <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>109.5863713539249</v>
+        <v>116.0298338265641</v>
       </c>
       <c r="P34" t="n">
-        <v>0</v>
+        <v>13.98970481639526</v>
       </c>
       <c r="Q34" t="n">
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>109.5863713539249</v>
+        <v>116.0298338265641</v>
       </c>
       <c r="S34" t="n">
-        <v>109.5863713539249</v>
+        <v>116.0298338265641</v>
       </c>
       <c r="T34" t="n">
-        <v>109.5863713539249</v>
+        <v>116.0298338265641</v>
       </c>
       <c r="U34" t="n">
-        <v>109.5863713539249</v>
+        <v>116.0298338265641</v>
       </c>
       <c r="V34" t="n">
-        <v>109.5863713539249</v>
+        <v>116.0298338265641</v>
       </c>
       <c r="W34" t="n">
-        <v>109.5863713539249</v>
+        <v>116.0298338265641</v>
       </c>
       <c r="X34" t="n">
-        <v>109.5863713539249</v>
+        <v>116.0298338265641</v>
       </c>
       <c r="Y34" t="n">
-        <v>109.5863713539249</v>
+        <v>116.0298338265641</v>
       </c>
     </row>
     <row r="35">
@@ -30165,23 +30165,23 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J37" t="n">
+        <v>30.07448747215907</v>
+      </c>
+      <c r="K37" t="n">
+        <v>5.636002634528452</v>
+      </c>
+      <c r="L37" t="n">
+        <v>0</v>
+      </c>
+      <c r="M37" t="n">
+        <v>0</v>
+      </c>
+      <c r="N37" t="n">
+        <v>0</v>
+      </c>
+      <c r="O37" t="n">
         <v>130.3599693155844</v>
       </c>
-      <c r="K37" t="n">
-        <v>28.01250026485259</v>
-      </c>
-      <c r="L37" t="n">
-        <v>0</v>
-      </c>
-      <c r="M37" t="n">
-        <v>0</v>
-      </c>
-      <c r="N37" t="n">
-        <v>0</v>
-      </c>
-      <c r="O37" t="n">
-        <v>0</v>
-      </c>
       <c r="P37" t="n">
         <v>0</v>
       </c>
@@ -30189,7 +30189,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>130.3599693155844</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S37" t="n">
         <v>130.3599693155844</v>
@@ -30420,10 +30420,10 @@
         <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>5.636002634528595</v>
+        <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>5.636002634528545</v>
       </c>
       <c r="R40" t="n">
         <v>122.6619794737488</v>
@@ -30457,28 +30457,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>96.46683947023185</v>
+        <v>96.46683947023193</v>
       </c>
       <c r="C41" t="n">
-        <v>96.46683947023185</v>
+        <v>96.46683947023193</v>
       </c>
       <c r="D41" t="n">
-        <v>96.46683947023185</v>
+        <v>96.46683947023193</v>
       </c>
       <c r="E41" t="n">
-        <v>96.46683947023185</v>
+        <v>96.46683947023193</v>
       </c>
       <c r="F41" t="n">
-        <v>96.46683947023185</v>
+        <v>96.46683947023193</v>
       </c>
       <c r="G41" t="n">
-        <v>96.46683947023185</v>
+        <v>96.46683947023193</v>
       </c>
       <c r="H41" t="n">
-        <v>96.46683947023185</v>
+        <v>96.46683947023193</v>
       </c>
       <c r="I41" t="n">
-        <v>96.46683947023185</v>
+        <v>96.46683947023193</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30508,25 +30508,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S41" t="n">
-        <v>96.46683947023185</v>
+        <v>96.46683947023193</v>
       </c>
       <c r="T41" t="n">
-        <v>96.46683947023185</v>
+        <v>96.46683947023193</v>
       </c>
       <c r="U41" t="n">
-        <v>96.46683947023185</v>
+        <v>96.46683947023193</v>
       </c>
       <c r="V41" t="n">
-        <v>96.46683947023185</v>
+        <v>96.46683947023193</v>
       </c>
       <c r="W41" t="n">
-        <v>96.46683947023185</v>
+        <v>96.46683947023193</v>
       </c>
       <c r="X41" t="n">
-        <v>96.46683947023185</v>
+        <v>96.46683947023193</v>
       </c>
       <c r="Y41" t="n">
-        <v>96.46683947023185</v>
+        <v>96.46683947023193</v>
       </c>
     </row>
     <row r="42">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>96.46683947023185</v>
+        <v>96.46683947023193</v>
       </c>
       <c r="C43" t="n">
-        <v>96.46683947023185</v>
+        <v>96.46683947023193</v>
       </c>
       <c r="D43" t="n">
-        <v>96.46683947023185</v>
+        <v>96.46683947023193</v>
       </c>
       <c r="E43" t="n">
-        <v>96.46683947023185</v>
+        <v>96.46683947023193</v>
       </c>
       <c r="F43" t="n">
-        <v>96.46683947023185</v>
+        <v>96.46683947023193</v>
       </c>
       <c r="G43" t="n">
-        <v>96.46683947023185</v>
+        <v>96.46683947023193</v>
       </c>
       <c r="H43" t="n">
-        <v>96.46683947023185</v>
+        <v>96.46683947023193</v>
       </c>
       <c r="I43" t="n">
-        <v>96.46683947023185</v>
+        <v>96.46683947023193</v>
       </c>
       <c r="J43" t="n">
-        <v>96.46683947023185</v>
+        <v>36.24905561692935</v>
       </c>
       <c r="K43" t="n">
-        <v>96.46683947023185</v>
+        <v>96.46683947023193</v>
       </c>
       <c r="L43" t="n">
-        <v>96.46683947023185</v>
+        <v>96.46683947023193</v>
       </c>
       <c r="M43" t="n">
-        <v>36.24905561693186</v>
+        <v>96.46683947023193</v>
       </c>
       <c r="N43" t="n">
-        <v>96.46683947023185</v>
+        <v>96.46683947023193</v>
       </c>
       <c r="O43" t="n">
-        <v>96.46683947023185</v>
+        <v>96.46683947023193</v>
       </c>
       <c r="P43" t="n">
-        <v>96.46683947023185</v>
+        <v>96.46683947023193</v>
       </c>
       <c r="Q43" t="n">
-        <v>96.46683947023185</v>
+        <v>96.46683947023193</v>
       </c>
       <c r="R43" t="n">
-        <v>96.46683947023185</v>
+        <v>96.46683947023193</v>
       </c>
       <c r="S43" t="n">
-        <v>96.46683947023185</v>
+        <v>96.46683947023193</v>
       </c>
       <c r="T43" t="n">
-        <v>96.46683947023185</v>
+        <v>96.46683947023193</v>
       </c>
       <c r="U43" t="n">
-        <v>96.46683947023185</v>
+        <v>96.46683947023193</v>
       </c>
       <c r="V43" t="n">
-        <v>96.46683947023185</v>
+        <v>96.46683947023193</v>
       </c>
       <c r="W43" t="n">
-        <v>96.46683947023185</v>
+        <v>96.46683947023193</v>
       </c>
       <c r="X43" t="n">
-        <v>96.46683947023185</v>
+        <v>96.46683947023193</v>
       </c>
       <c r="Y43" t="n">
-        <v>96.46683947023185</v>
+        <v>96.46683947023193</v>
       </c>
     </row>
     <row r="44">
@@ -30694,28 +30694,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>96.46683947023186</v>
+        <v>96.46683947023193</v>
       </c>
       <c r="C44" t="n">
-        <v>96.46683947023186</v>
+        <v>96.46683947023193</v>
       </c>
       <c r="D44" t="n">
-        <v>96.46683947023186</v>
+        <v>96.46683947023193</v>
       </c>
       <c r="E44" t="n">
-        <v>96.46683947023186</v>
+        <v>96.46683947023193</v>
       </c>
       <c r="F44" t="n">
-        <v>96.46683947023186</v>
+        <v>96.46683947023193</v>
       </c>
       <c r="G44" t="n">
-        <v>96.46683947023186</v>
+        <v>96.46683947023193</v>
       </c>
       <c r="H44" t="n">
-        <v>96.46683947023186</v>
+        <v>96.46683947023193</v>
       </c>
       <c r="I44" t="n">
-        <v>96.46683947023186</v>
+        <v>96.46683947023193</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -30745,25 +30745,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S44" t="n">
-        <v>96.46683947023186</v>
+        <v>96.46683947023193</v>
       </c>
       <c r="T44" t="n">
-        <v>96.46683947023186</v>
+        <v>96.46683947023193</v>
       </c>
       <c r="U44" t="n">
-        <v>96.46683947023186</v>
+        <v>96.46683947023193</v>
       </c>
       <c r="V44" t="n">
-        <v>96.46683947023186</v>
+        <v>96.46683947023193</v>
       </c>
       <c r="W44" t="n">
-        <v>96.46683947023186</v>
+        <v>96.46683947023193</v>
       </c>
       <c r="X44" t="n">
-        <v>96.46683947023186</v>
+        <v>96.46683947023193</v>
       </c>
       <c r="Y44" t="n">
-        <v>96.46683947023186</v>
+        <v>96.46683947023193</v>
       </c>
     </row>
     <row r="45">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>96.46683947023186</v>
+        <v>96.46683947023193</v>
       </c>
       <c r="C46" t="n">
-        <v>96.46683947023186</v>
+        <v>96.46683947023193</v>
       </c>
       <c r="D46" t="n">
-        <v>96.46683947023186</v>
+        <v>96.46683947023193</v>
       </c>
       <c r="E46" t="n">
-        <v>96.46683947023186</v>
+        <v>96.46683947023193</v>
       </c>
       <c r="F46" t="n">
-        <v>96.46683947023186</v>
+        <v>96.46683947023193</v>
       </c>
       <c r="G46" t="n">
-        <v>96.46683947023186</v>
+        <v>96.46683947023193</v>
       </c>
       <c r="H46" t="n">
-        <v>96.46683947023186</v>
+        <v>96.46683947023193</v>
       </c>
       <c r="I46" t="n">
-        <v>96.46683947023186</v>
+        <v>96.46683947023193</v>
       </c>
       <c r="J46" t="n">
-        <v>36.24905561693167</v>
+        <v>96.46683947023193</v>
       </c>
       <c r="K46" t="n">
-        <v>96.46683947023186</v>
+        <v>96.46683947023193</v>
       </c>
       <c r="L46" t="n">
-        <v>96.46683947023186</v>
+        <v>96.46683947023193</v>
       </c>
       <c r="M46" t="n">
-        <v>96.46683947023186</v>
+        <v>96.46683947023193</v>
       </c>
       <c r="N46" t="n">
-        <v>96.46683947023186</v>
+        <v>36.24905561692941</v>
       </c>
       <c r="O46" t="n">
-        <v>96.46683947023186</v>
+        <v>96.46683947023193</v>
       </c>
       <c r="P46" t="n">
-        <v>96.46683947023186</v>
+        <v>96.46683947023193</v>
       </c>
       <c r="Q46" t="n">
-        <v>96.46683947023186</v>
+        <v>96.46683947023193</v>
       </c>
       <c r="R46" t="n">
-        <v>96.46683947023186</v>
+        <v>96.46683947023193</v>
       </c>
       <c r="S46" t="n">
-        <v>96.46683947023186</v>
+        <v>96.46683947023193</v>
       </c>
       <c r="T46" t="n">
-        <v>96.46683947023186</v>
+        <v>96.46683947023193</v>
       </c>
       <c r="U46" t="n">
-        <v>96.46683947023186</v>
+        <v>96.46683947023193</v>
       </c>
       <c r="V46" t="n">
-        <v>96.46683947023186</v>
+        <v>96.46683947023193</v>
       </c>
       <c r="W46" t="n">
-        <v>96.46683947023186</v>
+        <v>96.46683947023193</v>
       </c>
       <c r="X46" t="n">
-        <v>96.46683947023186</v>
+        <v>96.46683947023193</v>
       </c>
       <c r="Y46" t="n">
-        <v>96.46683947023186</v>
+        <v>96.46683947023193</v>
       </c>
     </row>
   </sheetData>
@@ -34696,28 +34696,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>6.124623492699985</v>
       </c>
       <c r="K2" t="n">
         <v>362.6084404317796</v>
       </c>
       <c r="L2" t="n">
-        <v>413.1453028967015</v>
+        <v>498.303324968211</v>
       </c>
       <c r="M2" t="n">
-        <v>531.1342317129852</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>506.2290737327784</v>
       </c>
       <c r="O2" t="n">
         <v>444.4844453457863</v>
       </c>
       <c r="P2" t="n">
-        <v>351.7045375065877</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34784,13 +34784,13 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>531.1342317129852</v>
+        <v>506.2290737327784</v>
       </c>
       <c r="N3" t="n">
-        <v>80.78526262075866</v>
+        <v>22.58464313947019</v>
       </c>
       <c r="O3" t="n">
-        <v>521.7376591828091</v>
+        <v>506.2290737327784</v>
       </c>
       <c r="P3" t="n">
         <v>409.7185542589873</v>
@@ -34933,7 +34933,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K5" t="n">
         <v>362.6084404317796</v>
@@ -34942,19 +34942,19 @@
         <v>498.303324968211</v>
       </c>
       <c r="M5" t="n">
-        <v>531.1342317129852</v>
+        <v>14.5382779928018</v>
       </c>
       <c r="N5" t="n">
-        <v>531.1342317129852</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>179.8967290678793</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>48.54898157998544</v>
       </c>
       <c r="M6" t="n">
-        <v>531.1342317129852</v>
+        <v>506.2290737327784</v>
       </c>
       <c r="N6" t="n">
-        <v>403.7540970270479</v>
+        <v>506.2290737327784</v>
       </c>
       <c r="O6" t="n">
-        <v>521.7376591828091</v>
+        <v>506.2290737327784</v>
       </c>
       <c r="P6" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35170,16 +35170,16 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K8" t="n">
-        <v>314.3065239219562</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L8" t="n">
         <v>498.303324968211</v>
       </c>
       <c r="M8" t="n">
-        <v>551.5160606510915</v>
+        <v>170.3905754041197</v>
       </c>
       <c r="N8" t="n">
         <v>533.1427107449111</v>
@@ -35191,7 +35191,7 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35252,19 +35252,19 @@
         <v>114.2575577977044</v>
       </c>
       <c r="K9" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="N9" t="n">
-        <v>591.4121262692951</v>
+        <v>501.1818197774805</v>
       </c>
       <c r="O9" t="n">
-        <v>178.2129853711913</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
         <v>409.7185542589873</v>
@@ -35486,7 +35486,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -35495,10 +35495,10 @@
         <v>488.450591816478</v>
       </c>
       <c r="M12" t="n">
-        <v>634.1127774006881</v>
+        <v>259.444269251904</v>
       </c>
       <c r="N12" t="n">
-        <v>173.4759251752883</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O12" t="n">
         <v>521.7376591828091</v>
@@ -35665,7 +35665,7 @@
         <v>351.7045375065877</v>
       </c>
       <c r="Q14" t="n">
-        <v>186.7126870110593</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35732,19 +35732,19 @@
         <v>488.450591816478</v>
       </c>
       <c r="M15" t="n">
-        <v>634.1127774006881</v>
+        <v>107.2231205187088</v>
       </c>
       <c r="N15" t="n">
-        <v>260.2256450279866</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O15" t="n">
-        <v>521.7376591828091</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35817,7 +35817,7 @@
         <v>279.0313088492753</v>
       </c>
       <c r="O16" t="n">
-        <v>258.3395240113953</v>
+        <v>258.3395240113952</v>
       </c>
       <c r="P16" t="n">
         <v>215.0783106122746</v>
@@ -35966,19 +35966,19 @@
         <v>322.9688344062893</v>
       </c>
       <c r="L18" t="n">
-        <v>488.450591816478</v>
+        <v>371.2794891934863</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N18" t="n">
-        <v>247.8874524576764</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O18" t="n">
-        <v>521.7376591828091</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>236.7324157120106</v>
@@ -36039,10 +36039,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>5.636002634529095</v>
       </c>
       <c r="K19" t="n">
-        <v>82.66165768680997</v>
+        <v>213.0216270023944</v>
       </c>
       <c r="L19" t="n">
         <v>165.78549482202</v>
@@ -36057,13 +36057,13 @@
         <v>164.3482495370789</v>
       </c>
       <c r="P19" t="n">
-        <v>249.385018246236</v>
+        <v>121.0870361379582</v>
       </c>
       <c r="Q19" t="n">
         <v>3.456764010152483</v>
       </c>
       <c r="R19" t="n">
-        <v>7.697989841835579</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -36200,16 +36200,16 @@
         <v>114.2575577977044</v>
       </c>
       <c r="K21" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>488.450591816478</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>247.8874524576764</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>425.1941012797557</v>
       </c>
       <c r="O21" t="n">
         <v>521.7376591828091</v>
@@ -36282,10 +36282,10 @@
         <v>82.66165768680997</v>
       </c>
       <c r="L22" t="n">
-        <v>296.1454641376043</v>
+        <v>165.78549482202</v>
       </c>
       <c r="M22" t="n">
-        <v>193.8093140873211</v>
+        <v>188.1733114527919</v>
       </c>
       <c r="N22" t="n">
         <v>185.0400343749588</v>
@@ -36294,10 +36294,10 @@
         <v>164.3482495370789</v>
       </c>
       <c r="P22" t="n">
-        <v>121.0870361379582</v>
+        <v>251.4470054535425</v>
       </c>
       <c r="Q22" t="n">
-        <v>3.456764010152483</v>
+        <v>9.092766644681488</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36370,7 +36370,7 @@
         <v>533.1427107449111</v>
       </c>
       <c r="O23" t="n">
-        <v>444.4844453457863</v>
+        <v>444.4844453457873</v>
       </c>
       <c r="P23" t="n">
         <v>351.7045375065877</v>
@@ -36434,22 +36434,22 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M24" t="n">
-        <v>247.8874524576764</v>
+        <v>544.4495127227025</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O24" t="n">
-        <v>521.7376591828091</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
         <v>409.7185542589873</v>
@@ -36513,7 +36513,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>100.2854818434253</v>
       </c>
       <c r="K25" t="n">
         <v>82.66165768680997</v>
@@ -36525,13 +36525,13 @@
         <v>188.1733114527919</v>
       </c>
       <c r="N25" t="n">
-        <v>185.0400343749588</v>
+        <v>220.7505244816469</v>
       </c>
       <c r="O25" t="n">
-        <v>169.9842521716083</v>
+        <v>164.3482495370789</v>
       </c>
       <c r="P25" t="n">
-        <v>251.4470054535425</v>
+        <v>121.0870361379582</v>
       </c>
       <c r="Q25" t="n">
         <v>3.456764010152483</v>
@@ -36592,7 +36592,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>240.1021562004055</v>
+        <v>240.1021562004054</v>
       </c>
       <c r="K26" t="n">
         <v>456.5997149060961</v>
@@ -36604,19 +36604,19 @@
         <v>581.7882983101038</v>
       </c>
       <c r="N26" t="n">
-        <v>533.1427107449111</v>
+        <v>627.1339852192276</v>
       </c>
       <c r="O26" t="n">
         <v>444.4844453457863</v>
       </c>
       <c r="P26" t="n">
-        <v>445.6958119809042</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q26" t="n">
         <v>280.7039614853756</v>
       </c>
       <c r="R26" t="n">
-        <v>56.37828989698319</v>
+        <v>56.37828989698318</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36674,13 +36674,13 @@
         <v>114.2575577977044</v>
       </c>
       <c r="K27" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>488.450591816478</v>
+        <v>425.1941012797553</v>
       </c>
       <c r="M27" t="n">
-        <v>247.8874524576761</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
@@ -36750,7 +36750,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>63.9167870021574</v>
+        <v>63.91678700215738</v>
       </c>
       <c r="K28" t="n">
         <v>176.6529321611264</v>
@@ -36771,7 +36771,7 @@
         <v>215.0783106122746</v>
       </c>
       <c r="Q28" t="n">
-        <v>97.44803848446895</v>
+        <v>97.44803848446894</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36832,25 +36832,25 @@
         <v>240.1021562004054</v>
       </c>
       <c r="K29" t="n">
-        <v>456.5997149060961</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L29" t="n">
         <v>592.2945994425274</v>
       </c>
       <c r="M29" t="n">
-        <v>581.7882983101042</v>
+        <v>645.507335125408</v>
       </c>
       <c r="N29" t="n">
-        <v>533.1427107449111</v>
+        <v>627.1339852192276</v>
       </c>
       <c r="O29" t="n">
-        <v>444.4844453457863</v>
+        <v>538.4757198201028</v>
       </c>
       <c r="P29" t="n">
-        <v>445.6958119809042</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q29" t="n">
-        <v>280.7039614853756</v>
+        <v>216.9849246700714</v>
       </c>
       <c r="R29" t="n">
         <v>56.37828989698318</v>
@@ -36917,13 +36917,13 @@
         <v>488.450591816478</v>
       </c>
       <c r="M30" t="n">
-        <v>247.8874524576761</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>521.7376591828091</v>
+        <v>135.5123342397974</v>
       </c>
       <c r="P30" t="n">
         <v>409.7185542589873</v>
@@ -36987,7 +36987,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>63.91678700215738</v>
+        <v>63.91678700215727</v>
       </c>
       <c r="K31" t="n">
         <v>176.6529321611264</v>
@@ -37072,16 +37072,16 @@
         <v>362.6084404317796</v>
       </c>
       <c r="L32" t="n">
-        <v>607.8896963221359</v>
+        <v>601.5899204195825</v>
       </c>
       <c r="M32" t="n">
-        <v>661.1024320050165</v>
+        <v>551.5160606510915</v>
       </c>
       <c r="N32" t="n">
-        <v>559.9273734499318</v>
+        <v>533.1427107449111</v>
       </c>
       <c r="O32" t="n">
-        <v>444.4844453457863</v>
+        <v>560.5142791723504</v>
       </c>
       <c r="P32" t="n">
         <v>351.7045375065877</v>
@@ -37090,7 +37090,7 @@
         <v>186.7126870110591</v>
       </c>
       <c r="R32" t="n">
-        <v>71.97338677659165</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37148,13 +37148,13 @@
         <v>114.2575577977044</v>
       </c>
       <c r="K33" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M33" t="n">
-        <v>247.8874524576764</v>
+        <v>570.8562868639657</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
@@ -37224,25 +37224,25 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>28.92237465268303</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
         <v>82.66165768680997</v>
       </c>
       <c r="L34" t="n">
-        <v>275.3718661759449</v>
+        <v>281.8153286485841</v>
       </c>
       <c r="M34" t="n">
-        <v>297.7596828067169</v>
+        <v>304.203145279356</v>
       </c>
       <c r="N34" t="n">
-        <v>294.6264057288837</v>
+        <v>185.0400343749588</v>
       </c>
       <c r="O34" t="n">
-        <v>273.9346208910038</v>
+        <v>280.3780833636429</v>
       </c>
       <c r="P34" t="n">
-        <v>121.0870361379582</v>
+        <v>135.0767409543534</v>
       </c>
       <c r="Q34" t="n">
         <v>3.456764010152483</v>
@@ -37388,13 +37388,13 @@
         <v>322.9688344062893</v>
       </c>
       <c r="L36" t="n">
-        <v>488.450591816478</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>247.8874524576764</v>
+        <v>73.93605315237758</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O36" t="n">
         <v>521.7376591828091</v>
@@ -37461,10 +37461,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>100.2854818434253</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>110.6741579516626</v>
+        <v>88.29766032133843</v>
       </c>
       <c r="L37" t="n">
         <v>165.78549482202</v>
@@ -37476,7 +37476,7 @@
         <v>185.0400343749588</v>
       </c>
       <c r="O37" t="n">
-        <v>164.3482495370789</v>
+        <v>294.7082188526633</v>
       </c>
       <c r="P37" t="n">
         <v>121.0870361379582</v>
@@ -37485,7 +37485,7 @@
         <v>3.456764010152483</v>
       </c>
       <c r="R37" t="n">
-        <v>7.697989841835579</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -37549,7 +37549,7 @@
         <v>498.303324968211</v>
       </c>
       <c r="M38" t="n">
-        <v>551.5160606510916</v>
+        <v>551.5160606510915</v>
       </c>
       <c r="N38" t="n">
         <v>533.1427107449111</v>
@@ -37622,22 +37622,22 @@
         <v>114.2575577977044</v>
       </c>
       <c r="K39" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>488.450591816478</v>
+        <v>172.5106644169664</v>
       </c>
       <c r="M39" t="n">
-        <v>247.8874524576764</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O39" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P39" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>236.7324157120106</v>
@@ -37716,10 +37716,10 @@
         <v>164.3482495370789</v>
       </c>
       <c r="P40" t="n">
-        <v>126.7230387724868</v>
+        <v>121.0870361379582</v>
       </c>
       <c r="Q40" t="n">
-        <v>3.456764010152483</v>
+        <v>9.092766644681028</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37856,28 +37856,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>322.9688344062893</v>
       </c>
       <c r="L42" t="n">
-        <v>488.450591816478</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>247.8874524576764</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O42" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P42" t="n">
-        <v>409.7185542589873</v>
+        <v>200.5318035203919</v>
       </c>
       <c r="Q42" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37935,28 +37935,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>66.39235199807277</v>
+        <v>6.174568144770276</v>
       </c>
       <c r="K43" t="n">
-        <v>179.1284971570418</v>
+        <v>179.1284971570419</v>
       </c>
       <c r="L43" t="n">
-        <v>262.2523342922518</v>
+        <v>262.2523342922519</v>
       </c>
       <c r="M43" t="n">
-        <v>224.4223670697238</v>
+        <v>284.6401509230239</v>
       </c>
       <c r="N43" t="n">
-        <v>281.5068738451906</v>
+        <v>281.5068738451907</v>
       </c>
       <c r="O43" t="n">
-        <v>260.8150890073107</v>
+        <v>260.8150890073108</v>
       </c>
       <c r="P43" t="n">
-        <v>217.55387560819</v>
+        <v>217.5538756081901</v>
       </c>
       <c r="Q43" t="n">
-        <v>99.92360348038433</v>
+        <v>99.92360348038441</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38093,22 +38093,22 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>488.450591816478</v>
+        <v>398.7873271384925</v>
       </c>
       <c r="M45" t="n">
-        <v>247.8874524576764</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O45" t="n">
-        <v>521.7376591828091</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
         <v>409.7185542589873</v>
@@ -38172,28 +38172,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>6.174568144772601</v>
+        <v>66.39235199807285</v>
       </c>
       <c r="K46" t="n">
-        <v>179.1284971570418</v>
+        <v>179.1284971570419</v>
       </c>
       <c r="L46" t="n">
-        <v>262.2523342922518</v>
+        <v>262.2523342922519</v>
       </c>
       <c r="M46" t="n">
-        <v>284.6401509230238</v>
+        <v>284.6401509230239</v>
       </c>
       <c r="N46" t="n">
-        <v>281.5068738451906</v>
+        <v>221.2890899918882</v>
       </c>
       <c r="O46" t="n">
-        <v>260.8150890073107</v>
+        <v>260.8150890073108</v>
       </c>
       <c r="P46" t="n">
-        <v>217.55387560819</v>
+        <v>217.5538756081901</v>
       </c>
       <c r="Q46" t="n">
-        <v>99.92360348038434</v>
+        <v>99.92360348038441</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
